--- a/public/template/saldo.xlsx
+++ b/public/template/saldo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U0153\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U0153\Downloads\E-Moliya\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27988637-C75F-4E21-9AF7-DE153A6CC4E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BDA061-200B-4039-96CA-054F4B825AA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>Сумма</t>
   </si>
@@ -33,9 +33,6 @@
     <t>шт.</t>
   </si>
   <si>
-    <t>литр</t>
-  </si>
-  <si>
     <t>edin</t>
   </si>
   <si>
@@ -45,24 +42,12 @@
     <t>summa</t>
   </si>
   <si>
-    <t>groupId</t>
-  </si>
-  <si>
-    <t>responsibleId</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
-    <t>docNum</t>
-  </si>
-  <si>
     <t xml:space="preserve">document raqami </t>
   </si>
   <si>
-    <t>docDate</t>
-  </si>
-  <si>
     <t>document sanasi</t>
   </si>
   <si>
@@ -84,12 +69,6 @@
     <t xml:space="preserve">umumiy summasi toldirilishi shart raqam bolishi kerak </t>
   </si>
   <si>
-    <t xml:space="preserve">nds foiz agar bolsa kiritiladi raqam bolishi kerak </t>
-  </si>
-  <si>
-    <t xml:space="preserve">nds foiz </t>
-  </si>
-  <si>
     <t xml:space="preserve">agar iznos olinsa "ha" yozib qoldiring aks holda bosh qolsin </t>
   </si>
   <si>
@@ -111,18 +90,6 @@
     <t xml:space="preserve">serial raqami </t>
   </si>
   <si>
-    <t>inventarNum</t>
-  </si>
-  <si>
-    <t>serialNum</t>
-  </si>
-  <si>
-    <t>ndsFoiz</t>
-  </si>
-  <si>
-    <t>eskiIznosSumma</t>
-  </si>
-  <si>
     <t>11.01.2024</t>
   </si>
   <si>
@@ -151,13 +118,49 @@
   </si>
   <si>
     <t>1, 2, 3, 4 qatorlarga iltimos tegmang</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tovar nomi text fornmatida bolishi kerak </t>
+  </si>
+  <si>
+    <t xml:space="preserve">npmi </t>
+  </si>
+  <si>
+    <t>group_jur7_id</t>
+  </si>
+  <si>
+    <t>responsible_id</t>
+  </si>
+  <si>
+    <t>doc_date</t>
+  </si>
+  <si>
+    <t>inventar_num</t>
+  </si>
+  <si>
+    <t>serial_num</t>
+  </si>
+  <si>
+    <t>eski_iznos_summa</t>
+  </si>
+  <si>
+    <t>doc_num</t>
+  </si>
+  <si>
+    <t>Cobalt</t>
+  </si>
+  <si>
+    <t>Spark</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +211,12 @@
       <color rgb="FF000000"/>
       <name val="MS Sans Serif"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="8">
@@ -334,7 +343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -365,22 +374,12 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -412,9 +411,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -422,6 +418,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -707,19 +706,18 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
-    <col min="2" max="2" width="37" style="11" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="18" style="14" customWidth="1"/>
+    <col min="1" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="37" style="11" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
     <col min="9" max="9" width="18.5703125" customWidth="1"/>
     <col min="10" max="10" width="19.42578125" customWidth="1"/>
     <col min="11" max="11" width="28.85546875" customWidth="1"/>
@@ -727,248 +725,248 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="4" customFormat="1" ht="120" customHeight="1">
-      <c r="A1" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="A1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>11</v>
+      <c r="K1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="113.25" customHeight="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="16" t="s">
+      <c r="K2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="14" t="s">
         <v>22</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A3" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="24" t="s">
-        <v>41</v>
+      <c r="A3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A4" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="22" t="s">
+      <c r="A4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="22" t="s">
+      <c r="H4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="26" t="s">
-        <v>12</v>
+      <c r="I4" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="27">
-        <v>31</v>
-      </c>
-      <c r="B5" s="28">
-        <v>697</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="27" t="s">
+      <c r="A5" s="23">
+        <v>34</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="24">
+        <v>344</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="27">
+      <c r="G5" s="23">
         <v>2</v>
       </c>
-      <c r="G5" s="27">
+      <c r="H5" s="23">
         <v>65000</v>
       </c>
-      <c r="H5" s="29">
-        <v>0</v>
-      </c>
-      <c r="I5" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="31">
-        <v>122111</v>
-      </c>
-      <c r="K5" s="30">
+      <c r="I5" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="26">
+        <v>1200</v>
+      </c>
+      <c r="K5" s="25">
         <v>12</v>
       </c>
-      <c r="L5" s="30" t="s">
-        <v>32</v>
+      <c r="L5" s="25" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="27">
-        <v>31</v>
-      </c>
-      <c r="B6" s="28">
-        <v>697</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="27">
-        <v>200</v>
-      </c>
-      <c r="G6" s="27">
+      <c r="A6" s="23">
+        <v>34</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="24">
+        <v>344</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="23">
+        <v>4</v>
+      </c>
+      <c r="H6" s="23">
         <v>80000</v>
       </c>
-      <c r="H6" s="29">
-        <v>10</v>
-      </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30">
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25">
         <v>12</v>
       </c>
-      <c r="L6" s="30" t="s">
-        <v>34</v>
+      <c r="L6" s="25" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="12"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="5"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="13"/>
+      <c r="H8" s="7"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>

--- a/public/template/saldo.xlsx
+++ b/public/template/saldo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U0153\Desktop\jurnal\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC77A90-37F0-4665-9D3F-2B23E42E3424}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F07CA08-13DE-4876-8ADC-98B6ECD888A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>responsible_id</t>
   </si>
@@ -122,12 +122,6 @@
   </si>
   <si>
     <t>document sanasi</t>
-  </si>
-  <si>
-    <t>12.02.2025</t>
-  </si>
-  <si>
-    <t>12.03.2025</t>
   </si>
   <si>
     <t>iznos_start</t>
@@ -829,8 +823,8 @@
   </sheetPr>
   <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -883,7 +877,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>10</v>
@@ -927,16 +921,16 @@
         <v>22</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>23</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" ht="90" customHeight="1">
@@ -988,7 +982,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>25</v>
@@ -1015,7 +1009,7 @@
         <v>30</v>
       </c>
       <c r="K4" s="51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L4" s="21" t="s">
         <v>31</v>
@@ -1039,15 +1033,9 @@
       <c r="I5" s="24"/>
       <c r="J5" s="24"/>
       <c r="K5" s="24"/>
-      <c r="L5" s="24">
-        <v>5</v>
-      </c>
-      <c r="M5" s="30">
-        <v>12</v>
-      </c>
-      <c r="N5" s="31" t="s">
-        <v>34</v>
-      </c>
+      <c r="L5" s="24"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="31"/>
     </row>
     <row r="6" spans="1:14" ht="22.5" customHeight="1">
       <c r="A6" s="24"/>
@@ -1061,15 +1049,9 @@
       <c r="I6" s="24"/>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
-      <c r="L6" s="24">
-        <v>5</v>
-      </c>
-      <c r="M6" s="30">
-        <v>13</v>
-      </c>
-      <c r="N6" s="31" t="s">
-        <v>34</v>
-      </c>
+      <c r="L6" s="24"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="31"/>
     </row>
     <row r="7" spans="1:14" ht="22.5" customHeight="1">
       <c r="A7" s="24"/>
@@ -1083,15 +1065,9 @@
       <c r="I7" s="24"/>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
-      <c r="L7" s="24">
-        <v>5</v>
-      </c>
-      <c r="M7" s="30">
-        <v>14</v>
-      </c>
-      <c r="N7" s="31" t="s">
-        <v>34</v>
-      </c>
+      <c r="L7" s="24"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="31"/>
     </row>
     <row r="8" spans="1:14" ht="23.25" customHeight="1">
       <c r="A8" s="24"/>
@@ -1105,15 +1081,9 @@
       <c r="I8" s="24"/>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
-      <c r="L8" s="24">
-        <v>5</v>
-      </c>
-      <c r="M8" s="30">
-        <v>15</v>
-      </c>
-      <c r="N8" s="31" t="s">
-        <v>34</v>
-      </c>
+      <c r="L8" s="24"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="31"/>
     </row>
     <row r="9" spans="1:14" ht="22.5" customHeight="1">
       <c r="A9" s="24"/>
@@ -1127,15 +1097,9 @@
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
-      <c r="L9" s="24">
-        <v>5</v>
-      </c>
-      <c r="M9" s="30">
-        <v>16</v>
-      </c>
-      <c r="N9" s="31" t="s">
-        <v>34</v>
-      </c>
+      <c r="L9" s="24"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="31"/>
     </row>
     <row r="10" spans="1:14" ht="33" customHeight="1">
       <c r="A10" s="24"/>
@@ -1149,15 +1113,9 @@
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
-      <c r="L10" s="24">
-        <v>5</v>
-      </c>
-      <c r="M10" s="30">
-        <v>17</v>
-      </c>
-      <c r="N10" s="31" t="s">
-        <v>34</v>
-      </c>
+      <c r="L10" s="24"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="31"/>
     </row>
     <row r="11" spans="1:14" ht="22.5" customHeight="1">
       <c r="A11" s="24"/>
@@ -1171,15 +1129,9 @@
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
       <c r="K11" s="24"/>
-      <c r="L11" s="24">
-        <v>5</v>
-      </c>
-      <c r="M11" s="30">
-        <v>18</v>
-      </c>
-      <c r="N11" s="31" t="s">
-        <v>34</v>
-      </c>
+      <c r="L11" s="24"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="31"/>
     </row>
     <row r="12" spans="1:14" ht="22.5" customHeight="1">
       <c r="A12" s="24"/>
@@ -1193,15 +1145,9 @@
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
       <c r="K12" s="24"/>
-      <c r="L12" s="24">
-        <v>5</v>
-      </c>
-      <c r="M12" s="30">
-        <v>19</v>
-      </c>
-      <c r="N12" s="31" t="s">
-        <v>34</v>
-      </c>
+      <c r="L12" s="24"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="31"/>
     </row>
     <row r="13" spans="1:14" ht="18.75" customHeight="1">
       <c r="A13" s="24"/>
@@ -1215,15 +1161,9 @@
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
       <c r="K13" s="24"/>
-      <c r="L13" s="24">
-        <v>5</v>
-      </c>
-      <c r="M13" s="30">
-        <v>20</v>
-      </c>
-      <c r="N13" s="31" t="s">
-        <v>34</v>
-      </c>
+      <c r="L13" s="24"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="31"/>
     </row>
     <row r="14" spans="1:14" ht="18.75" customHeight="1">
       <c r="A14" s="24"/>
@@ -1237,15 +1177,9 @@
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
-      <c r="L14" s="24">
-        <v>5</v>
-      </c>
-      <c r="M14" s="30">
-        <v>21</v>
-      </c>
-      <c r="N14" s="31" t="s">
-        <v>34</v>
-      </c>
+      <c r="L14" s="24"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="31"/>
     </row>
     <row r="15" spans="1:14" ht="18.75" customHeight="1">
       <c r="A15" s="24"/>
@@ -1259,15 +1193,9 @@
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
-      <c r="L15" s="24">
-        <v>5</v>
-      </c>
-      <c r="M15" s="30">
-        <v>22</v>
-      </c>
-      <c r="N15" s="31" t="s">
-        <v>34</v>
-      </c>
+      <c r="L15" s="24"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="31"/>
     </row>
     <row r="16" spans="1:14" ht="18.75" customHeight="1">
       <c r="A16" s="24"/>
@@ -1281,15 +1209,9 @@
       <c r="I16" s="24"/>
       <c r="J16" s="24"/>
       <c r="K16" s="24"/>
-      <c r="L16" s="24">
-        <v>5</v>
-      </c>
-      <c r="M16" s="30">
-        <v>23</v>
-      </c>
-      <c r="N16" s="31" t="s">
-        <v>34</v>
-      </c>
+      <c r="L16" s="24"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="31"/>
     </row>
     <row r="17" spans="1:14" ht="18.75" customHeight="1">
       <c r="A17" s="24"/>
@@ -1303,15 +1225,9 @@
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
       <c r="K17" s="24"/>
-      <c r="L17" s="24">
-        <v>5</v>
-      </c>
-      <c r="M17" s="30">
-        <v>24</v>
-      </c>
-      <c r="N17" s="31" t="s">
-        <v>34</v>
-      </c>
+      <c r="L17" s="24"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="31"/>
     </row>
     <row r="18" spans="1:14" ht="18.75" customHeight="1">
       <c r="A18" s="24"/>
@@ -1325,15 +1241,9 @@
       <c r="I18" s="24"/>
       <c r="J18" s="24"/>
       <c r="K18" s="24"/>
-      <c r="L18" s="24">
-        <v>5</v>
-      </c>
-      <c r="M18" s="30">
-        <v>25</v>
-      </c>
-      <c r="N18" s="31" t="s">
-        <v>34</v>
-      </c>
+      <c r="L18" s="24"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="31"/>
     </row>
     <row r="19" spans="1:14" ht="18.75" customHeight="1">
       <c r="A19" s="24"/>
@@ -1347,15 +1257,9 @@
       <c r="I19" s="24"/>
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
-      <c r="L19" s="24">
-        <v>5</v>
-      </c>
-      <c r="M19" s="30">
-        <v>26</v>
-      </c>
-      <c r="N19" s="31" t="s">
-        <v>34</v>
-      </c>
+      <c r="L19" s="24"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="31"/>
     </row>
     <row r="20" spans="1:14" ht="18.75" customHeight="1">
       <c r="A20" s="24"/>
@@ -1369,15 +1273,9 @@
       <c r="I20" s="24"/>
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
-      <c r="L20" s="24">
-        <v>5</v>
-      </c>
-      <c r="M20" s="30">
-        <v>27</v>
-      </c>
-      <c r="N20" s="31" t="s">
-        <v>34</v>
-      </c>
+      <c r="L20" s="24"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="31"/>
     </row>
     <row r="21" spans="1:14" ht="18.75" customHeight="1">
       <c r="A21" s="24"/>
@@ -1391,15 +1289,9 @@
       <c r="I21" s="24"/>
       <c r="J21" s="24"/>
       <c r="K21" s="24"/>
-      <c r="L21" s="24">
-        <v>5</v>
-      </c>
-      <c r="M21" s="30">
-        <v>12</v>
-      </c>
-      <c r="N21" s="31" t="s">
-        <v>34</v>
-      </c>
+      <c r="L21" s="24"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="31"/>
     </row>
     <row r="22" spans="1:14" ht="18.75" customHeight="1">
       <c r="A22" s="24"/>
@@ -1414,12 +1306,8 @@
       <c r="J22" s="24"/>
       <c r="K22" s="52"/>
       <c r="L22" s="37"/>
-      <c r="M22" s="30">
-        <v>13</v>
-      </c>
-      <c r="N22" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M22" s="30"/>
+      <c r="N22" s="31"/>
     </row>
     <row r="23" spans="1:14" ht="18.75" customHeight="1">
       <c r="A23" s="24"/>
@@ -1434,12 +1322,8 @@
       <c r="J23" s="24"/>
       <c r="K23" s="52"/>
       <c r="L23" s="37"/>
-      <c r="M23" s="30">
-        <v>14</v>
-      </c>
-      <c r="N23" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M23" s="30"/>
+      <c r="N23" s="31"/>
     </row>
     <row r="24" spans="1:14" ht="18.75" customHeight="1">
       <c r="A24" s="24"/>
@@ -1454,12 +1338,8 @@
       <c r="J24" s="24"/>
       <c r="K24" s="52"/>
       <c r="L24" s="37"/>
-      <c r="M24" s="30">
-        <v>15</v>
-      </c>
-      <c r="N24" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M24" s="30"/>
+      <c r="N24" s="31"/>
     </row>
     <row r="25" spans="1:14" ht="18.75" customHeight="1">
       <c r="A25" s="24"/>
@@ -1474,12 +1354,8 @@
       <c r="J25" s="24"/>
       <c r="K25" s="52"/>
       <c r="L25" s="37"/>
-      <c r="M25" s="30">
-        <v>16</v>
-      </c>
-      <c r="N25" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M25" s="30"/>
+      <c r="N25" s="31"/>
     </row>
     <row r="26" spans="1:14" ht="18.75" customHeight="1">
       <c r="A26" s="24"/>
@@ -1494,12 +1370,8 @@
       <c r="J26" s="24"/>
       <c r="K26" s="52"/>
       <c r="L26" s="37"/>
-      <c r="M26" s="30">
-        <v>17</v>
-      </c>
-      <c r="N26" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M26" s="30"/>
+      <c r="N26" s="31"/>
     </row>
     <row r="27" spans="1:14" ht="18.75" customHeight="1">
       <c r="A27" s="24"/>
@@ -1514,12 +1386,8 @@
       <c r="J27" s="24"/>
       <c r="K27" s="52"/>
       <c r="L27" s="37"/>
-      <c r="M27" s="30">
-        <v>18</v>
-      </c>
-      <c r="N27" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M27" s="30"/>
+      <c r="N27" s="31"/>
     </row>
     <row r="28" spans="1:14" ht="18.75" customHeight="1">
       <c r="A28" s="38"/>
@@ -1534,12 +1402,8 @@
       <c r="J28" s="24"/>
       <c r="K28" s="52"/>
       <c r="L28" s="37"/>
-      <c r="M28" s="30">
-        <v>19</v>
-      </c>
-      <c r="N28" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M28" s="30"/>
+      <c r="N28" s="31"/>
     </row>
     <row r="29" spans="1:14" ht="18.75" customHeight="1">
       <c r="A29" s="38"/>
@@ -1554,12 +1418,8 @@
       <c r="J29" s="24"/>
       <c r="K29" s="52"/>
       <c r="L29" s="37"/>
-      <c r="M29" s="30">
-        <v>20</v>
-      </c>
-      <c r="N29" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M29" s="30"/>
+      <c r="N29" s="31"/>
     </row>
     <row r="30" spans="1:14" ht="18.75" customHeight="1">
       <c r="A30" s="38"/>
@@ -1574,12 +1434,8 @@
       <c r="J30" s="24"/>
       <c r="K30" s="52"/>
       <c r="L30" s="37"/>
-      <c r="M30" s="30">
-        <v>21</v>
-      </c>
-      <c r="N30" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M30" s="30"/>
+      <c r="N30" s="31"/>
     </row>
     <row r="31" spans="1:14" ht="18.75" customHeight="1">
       <c r="A31" s="38"/>
@@ -1594,12 +1450,8 @@
       <c r="J31" s="24"/>
       <c r="K31" s="52"/>
       <c r="L31" s="37"/>
-      <c r="M31" s="30">
-        <v>22</v>
-      </c>
-      <c r="N31" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M31" s="30"/>
+      <c r="N31" s="31"/>
     </row>
     <row r="32" spans="1:14" ht="18.75" customHeight="1">
       <c r="A32" s="38"/>
@@ -1614,12 +1466,8 @@
       <c r="J32" s="24"/>
       <c r="K32" s="52"/>
       <c r="L32" s="37"/>
-      <c r="M32" s="30">
-        <v>23</v>
-      </c>
-      <c r="N32" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M32" s="30"/>
+      <c r="N32" s="31"/>
     </row>
     <row r="33" spans="1:14" ht="18.75" customHeight="1">
       <c r="A33" s="38"/>
@@ -1634,12 +1482,8 @@
       <c r="J33" s="24"/>
       <c r="K33" s="52"/>
       <c r="L33" s="37"/>
-      <c r="M33" s="30">
-        <v>24</v>
-      </c>
-      <c r="N33" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M33" s="30"/>
+      <c r="N33" s="31"/>
     </row>
     <row r="34" spans="1:14" ht="18.75" customHeight="1">
       <c r="A34" s="38"/>
@@ -1654,12 +1498,8 @@
       <c r="J34" s="24"/>
       <c r="K34" s="52"/>
       <c r="L34" s="37"/>
-      <c r="M34" s="30">
-        <v>25</v>
-      </c>
-      <c r="N34" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M34" s="30"/>
+      <c r="N34" s="31"/>
     </row>
     <row r="35" spans="1:14" ht="18.75" customHeight="1">
       <c r="A35" s="38"/>
@@ -1674,12 +1514,8 @@
       <c r="J35" s="24"/>
       <c r="K35" s="52"/>
       <c r="L35" s="37"/>
-      <c r="M35" s="30">
-        <v>26</v>
-      </c>
-      <c r="N35" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M35" s="30"/>
+      <c r="N35" s="31"/>
     </row>
     <row r="36" spans="1:14" ht="18.75" customHeight="1">
       <c r="A36" s="38"/>
@@ -1694,12 +1530,8 @@
       <c r="J36" s="24"/>
       <c r="K36" s="52"/>
       <c r="L36" s="37"/>
-      <c r="M36" s="30">
-        <v>27</v>
-      </c>
-      <c r="N36" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M36" s="30"/>
+      <c r="N36" s="31"/>
     </row>
     <row r="37" spans="1:14" ht="18.75" customHeight="1">
       <c r="A37" s="38"/>
@@ -1714,12 +1546,8 @@
       <c r="J37" s="24"/>
       <c r="K37" s="52"/>
       <c r="L37" s="37"/>
-      <c r="M37" s="30">
-        <v>12</v>
-      </c>
-      <c r="N37" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M37" s="30"/>
+      <c r="N37" s="31"/>
     </row>
     <row r="38" spans="1:14" ht="18.75" customHeight="1">
       <c r="A38" s="38"/>
@@ -1734,12 +1562,8 @@
       <c r="J38" s="24"/>
       <c r="K38" s="52"/>
       <c r="L38" s="37"/>
-      <c r="M38" s="30">
-        <v>13</v>
-      </c>
-      <c r="N38" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M38" s="30"/>
+      <c r="N38" s="31"/>
     </row>
     <row r="39" spans="1:14" ht="18.75" customHeight="1">
       <c r="A39" s="38"/>
@@ -1754,12 +1578,8 @@
       <c r="J39" s="24"/>
       <c r="K39" s="52"/>
       <c r="L39" s="37"/>
-      <c r="M39" s="30">
-        <v>14</v>
-      </c>
-      <c r="N39" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M39" s="30"/>
+      <c r="N39" s="31"/>
     </row>
     <row r="40" spans="1:14" ht="18.75" customHeight="1">
       <c r="A40" s="38"/>
@@ -1774,12 +1594,8 @@
       <c r="J40" s="24"/>
       <c r="K40" s="52"/>
       <c r="L40" s="37"/>
-      <c r="M40" s="30">
-        <v>15</v>
-      </c>
-      <c r="N40" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M40" s="30"/>
+      <c r="N40" s="31"/>
     </row>
     <row r="41" spans="1:14" ht="18.75" customHeight="1">
       <c r="A41" s="38"/>
@@ -1794,12 +1610,8 @@
       <c r="J41" s="24"/>
       <c r="K41" s="52"/>
       <c r="L41" s="37"/>
-      <c r="M41" s="30">
-        <v>16</v>
-      </c>
-      <c r="N41" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M41" s="30"/>
+      <c r="N41" s="31"/>
     </row>
     <row r="42" spans="1:14" ht="18.75" customHeight="1">
       <c r="A42" s="38"/>
@@ -1814,12 +1626,8 @@
       <c r="J42" s="24"/>
       <c r="K42" s="52"/>
       <c r="L42" s="37"/>
-      <c r="M42" s="30">
-        <v>17</v>
-      </c>
-      <c r="N42" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M42" s="30"/>
+      <c r="N42" s="31"/>
     </row>
     <row r="43" spans="1:14" ht="18.75" customHeight="1">
       <c r="A43" s="38"/>
@@ -1834,12 +1642,8 @@
       <c r="J43" s="24"/>
       <c r="K43" s="52"/>
       <c r="L43" s="37"/>
-      <c r="M43" s="30">
-        <v>18</v>
-      </c>
-      <c r="N43" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M43" s="30"/>
+      <c r="N43" s="31"/>
     </row>
     <row r="44" spans="1:14" ht="18.75" customHeight="1">
       <c r="A44" s="38"/>
@@ -1854,12 +1658,8 @@
       <c r="J44" s="24"/>
       <c r="K44" s="52"/>
       <c r="L44" s="37"/>
-      <c r="M44" s="30">
-        <v>19</v>
-      </c>
-      <c r="N44" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M44" s="30"/>
+      <c r="N44" s="31"/>
     </row>
     <row r="45" spans="1:14" ht="18.75" customHeight="1">
       <c r="A45" s="38"/>
@@ -1874,12 +1674,8 @@
       <c r="J45" s="24"/>
       <c r="K45" s="52"/>
       <c r="L45" s="37"/>
-      <c r="M45" s="30">
-        <v>20</v>
-      </c>
-      <c r="N45" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M45" s="30"/>
+      <c r="N45" s="31"/>
     </row>
     <row r="46" spans="1:14" ht="18.75" customHeight="1">
       <c r="A46" s="38"/>
@@ -1894,12 +1690,8 @@
       <c r="J46" s="24"/>
       <c r="K46" s="52"/>
       <c r="L46" s="37"/>
-      <c r="M46" s="30">
-        <v>21</v>
-      </c>
-      <c r="N46" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M46" s="30"/>
+      <c r="N46" s="31"/>
     </row>
     <row r="47" spans="1:14" ht="18.75" customHeight="1">
       <c r="A47" s="38"/>
@@ -1914,12 +1706,8 @@
       <c r="J47" s="24"/>
       <c r="K47" s="52"/>
       <c r="L47" s="37"/>
-      <c r="M47" s="30">
-        <v>22</v>
-      </c>
-      <c r="N47" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M47" s="30"/>
+      <c r="N47" s="31"/>
     </row>
     <row r="48" spans="1:14" ht="18.75" customHeight="1">
       <c r="A48" s="38"/>
@@ -1934,12 +1722,8 @@
       <c r="J48" s="24"/>
       <c r="K48" s="52"/>
       <c r="L48" s="37"/>
-      <c r="M48" s="30">
-        <v>23</v>
-      </c>
-      <c r="N48" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M48" s="30"/>
+      <c r="N48" s="31"/>
     </row>
     <row r="49" spans="1:14" ht="18.75" customHeight="1">
       <c r="A49" s="38"/>
@@ -1954,12 +1738,8 @@
       <c r="J49" s="24"/>
       <c r="K49" s="52"/>
       <c r="L49" s="37"/>
-      <c r="M49" s="30">
-        <v>24</v>
-      </c>
-      <c r="N49" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M49" s="30"/>
+      <c r="N49" s="31"/>
     </row>
     <row r="50" spans="1:14" ht="18.75" customHeight="1">
       <c r="A50" s="38"/>
@@ -1974,12 +1754,8 @@
       <c r="J50" s="24"/>
       <c r="K50" s="52"/>
       <c r="L50" s="37"/>
-      <c r="M50" s="30">
-        <v>25</v>
-      </c>
-      <c r="N50" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M50" s="30"/>
+      <c r="N50" s="31"/>
     </row>
     <row r="51" spans="1:14" ht="18.75" customHeight="1">
       <c r="A51" s="38"/>
@@ -1994,12 +1770,8 @@
       <c r="J51" s="24"/>
       <c r="K51" s="52"/>
       <c r="L51" s="37"/>
-      <c r="M51" s="30">
-        <v>26</v>
-      </c>
-      <c r="N51" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M51" s="30"/>
+      <c r="N51" s="31"/>
     </row>
     <row r="52" spans="1:14" ht="18.75" customHeight="1">
       <c r="A52" s="38"/>
@@ -2014,12 +1786,8 @@
       <c r="J52" s="24"/>
       <c r="K52" s="52"/>
       <c r="L52" s="37"/>
-      <c r="M52" s="30">
-        <v>27</v>
-      </c>
-      <c r="N52" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M52" s="30"/>
+      <c r="N52" s="31"/>
     </row>
     <row r="53" spans="1:14" ht="18.75" customHeight="1">
       <c r="A53" s="38"/>
@@ -2034,12 +1802,8 @@
       <c r="J53" s="24"/>
       <c r="K53" s="52"/>
       <c r="L53" s="37"/>
-      <c r="M53" s="30">
-        <v>12</v>
-      </c>
-      <c r="N53" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M53" s="30"/>
+      <c r="N53" s="31"/>
     </row>
     <row r="54" spans="1:14" ht="18.75" customHeight="1">
       <c r="A54" s="38"/>
@@ -2054,12 +1818,8 @@
       <c r="J54" s="24"/>
       <c r="K54" s="52"/>
       <c r="L54" s="37"/>
-      <c r="M54" s="30">
-        <v>13</v>
-      </c>
-      <c r="N54" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M54" s="30"/>
+      <c r="N54" s="31"/>
     </row>
     <row r="55" spans="1:14" ht="18.75" customHeight="1">
       <c r="A55" s="38"/>
@@ -2074,12 +1834,8 @@
       <c r="J55" s="24"/>
       <c r="K55" s="52"/>
       <c r="L55" s="37"/>
-      <c r="M55" s="30">
-        <v>14</v>
-      </c>
-      <c r="N55" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M55" s="30"/>
+      <c r="N55" s="31"/>
     </row>
     <row r="56" spans="1:14" ht="18.75" customHeight="1">
       <c r="A56" s="38"/>
@@ -2094,12 +1850,8 @@
       <c r="J56" s="24"/>
       <c r="K56" s="52"/>
       <c r="L56" s="37"/>
-      <c r="M56" s="30">
-        <v>15</v>
-      </c>
-      <c r="N56" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M56" s="30"/>
+      <c r="N56" s="31"/>
     </row>
     <row r="57" spans="1:14" ht="18.75" customHeight="1">
       <c r="A57" s="38"/>
@@ -2114,12 +1866,8 @@
       <c r="J57" s="24"/>
       <c r="K57" s="52"/>
       <c r="L57" s="37"/>
-      <c r="M57" s="30">
-        <v>16</v>
-      </c>
-      <c r="N57" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M57" s="30"/>
+      <c r="N57" s="31"/>
     </row>
     <row r="58" spans="1:14" ht="18.75" customHeight="1">
       <c r="A58" s="38"/>
@@ -2134,12 +1882,8 @@
       <c r="J58" s="24"/>
       <c r="K58" s="52"/>
       <c r="L58" s="37"/>
-      <c r="M58" s="30">
-        <v>17</v>
-      </c>
-      <c r="N58" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M58" s="30"/>
+      <c r="N58" s="31"/>
     </row>
     <row r="59" spans="1:14" ht="18.75" customHeight="1">
       <c r="A59" s="38"/>
@@ -2154,12 +1898,8 @@
       <c r="J59" s="24"/>
       <c r="K59" s="52"/>
       <c r="L59" s="37"/>
-      <c r="M59" s="30">
-        <v>18</v>
-      </c>
-      <c r="N59" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M59" s="30"/>
+      <c r="N59" s="31"/>
     </row>
     <row r="60" spans="1:14" ht="18.75" customHeight="1">
       <c r="A60" s="38"/>
@@ -2174,12 +1914,8 @@
       <c r="J60" s="24"/>
       <c r="K60" s="52"/>
       <c r="L60" s="37"/>
-      <c r="M60" s="30">
-        <v>19</v>
-      </c>
-      <c r="N60" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M60" s="30"/>
+      <c r="N60" s="31"/>
     </row>
     <row r="61" spans="1:14" ht="18.75" customHeight="1">
       <c r="A61" s="38"/>
@@ -2194,12 +1930,8 @@
       <c r="J61" s="24"/>
       <c r="K61" s="52"/>
       <c r="L61" s="37"/>
-      <c r="M61" s="30">
-        <v>20</v>
-      </c>
-      <c r="N61" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M61" s="30"/>
+      <c r="N61" s="31"/>
     </row>
     <row r="62" spans="1:14" ht="18.75" customHeight="1">
       <c r="A62" s="38"/>
@@ -2214,12 +1946,8 @@
       <c r="J62" s="24"/>
       <c r="K62" s="52"/>
       <c r="L62" s="37"/>
-      <c r="M62" s="30">
-        <v>21</v>
-      </c>
-      <c r="N62" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M62" s="30"/>
+      <c r="N62" s="31"/>
     </row>
     <row r="63" spans="1:14" ht="18.75" customHeight="1">
       <c r="A63" s="38"/>
@@ -2234,12 +1962,8 @@
       <c r="J63" s="24"/>
       <c r="K63" s="52"/>
       <c r="L63" s="37"/>
-      <c r="M63" s="30">
-        <v>22</v>
-      </c>
-      <c r="N63" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M63" s="30"/>
+      <c r="N63" s="31"/>
     </row>
     <row r="64" spans="1:14" ht="18.75" customHeight="1">
       <c r="A64" s="38"/>
@@ -2254,12 +1978,8 @@
       <c r="J64" s="24"/>
       <c r="K64" s="52"/>
       <c r="L64" s="37"/>
-      <c r="M64" s="30">
-        <v>23</v>
-      </c>
-      <c r="N64" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M64" s="30"/>
+      <c r="N64" s="31"/>
     </row>
     <row r="65" spans="1:14" ht="18.75" customHeight="1">
       <c r="A65" s="38"/>
@@ -2274,12 +1994,8 @@
       <c r="J65" s="24"/>
       <c r="K65" s="52"/>
       <c r="L65" s="37"/>
-      <c r="M65" s="30">
-        <v>24</v>
-      </c>
-      <c r="N65" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M65" s="30"/>
+      <c r="N65" s="31"/>
     </row>
     <row r="66" spans="1:14" ht="18.75" customHeight="1">
       <c r="A66" s="38"/>
@@ -2294,12 +2010,8 @@
       <c r="J66" s="24"/>
       <c r="K66" s="52"/>
       <c r="L66" s="37"/>
-      <c r="M66" s="30">
-        <v>25</v>
-      </c>
-      <c r="N66" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M66" s="30"/>
+      <c r="N66" s="31"/>
     </row>
     <row r="67" spans="1:14" ht="18.75" customHeight="1">
       <c r="A67" s="38"/>
@@ -2314,12 +2026,8 @@
       <c r="J67" s="24"/>
       <c r="K67" s="52"/>
       <c r="L67" s="37"/>
-      <c r="M67" s="30">
-        <v>26</v>
-      </c>
-      <c r="N67" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M67" s="30"/>
+      <c r="N67" s="31"/>
     </row>
     <row r="68" spans="1:14" ht="18.75" customHeight="1">
       <c r="A68" s="38"/>
@@ -2334,12 +2042,8 @@
       <c r="J68" s="24"/>
       <c r="K68" s="52"/>
       <c r="L68" s="37"/>
-      <c r="M68" s="30">
-        <v>27</v>
-      </c>
-      <c r="N68" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M68" s="30"/>
+      <c r="N68" s="31"/>
     </row>
     <row r="69" spans="1:14" ht="18.75" customHeight="1">
       <c r="A69" s="38"/>
@@ -2354,12 +2058,8 @@
       <c r="J69" s="24"/>
       <c r="K69" s="52"/>
       <c r="L69" s="37"/>
-      <c r="M69" s="30">
-        <v>12</v>
-      </c>
-      <c r="N69" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M69" s="30"/>
+      <c r="N69" s="31"/>
     </row>
     <row r="70" spans="1:14" ht="18.75" customHeight="1">
       <c r="A70" s="38"/>
@@ -2374,12 +2074,8 @@
       <c r="J70" s="24"/>
       <c r="K70" s="52"/>
       <c r="L70" s="37"/>
-      <c r="M70" s="30">
-        <v>13</v>
-      </c>
-      <c r="N70" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M70" s="30"/>
+      <c r="N70" s="31"/>
     </row>
     <row r="71" spans="1:14" ht="18.75" customHeight="1">
       <c r="A71" s="38"/>
@@ -2394,12 +2090,8 @@
       <c r="J71" s="24"/>
       <c r="K71" s="52"/>
       <c r="L71" s="37"/>
-      <c r="M71" s="30">
-        <v>14</v>
-      </c>
-      <c r="N71" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M71" s="30"/>
+      <c r="N71" s="31"/>
     </row>
     <row r="72" spans="1:14" ht="18.75" customHeight="1">
       <c r="A72" s="38"/>
@@ -2414,12 +2106,8 @@
       <c r="J72" s="24"/>
       <c r="K72" s="52"/>
       <c r="L72" s="37"/>
-      <c r="M72" s="30">
-        <v>15</v>
-      </c>
-      <c r="N72" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M72" s="30"/>
+      <c r="N72" s="31"/>
     </row>
     <row r="73" spans="1:14" ht="18.75" customHeight="1">
       <c r="A73" s="38"/>
@@ -2434,12 +2122,8 @@
       <c r="J73" s="24"/>
       <c r="K73" s="52"/>
       <c r="L73" s="37"/>
-      <c r="M73" s="30">
-        <v>16</v>
-      </c>
-      <c r="N73" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M73" s="30"/>
+      <c r="N73" s="31"/>
     </row>
     <row r="74" spans="1:14" ht="18.75" customHeight="1">
       <c r="A74" s="38"/>
@@ -2454,12 +2138,8 @@
       <c r="J74" s="24"/>
       <c r="K74" s="52"/>
       <c r="L74" s="37"/>
-      <c r="M74" s="30">
-        <v>17</v>
-      </c>
-      <c r="N74" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M74" s="30"/>
+      <c r="N74" s="31"/>
     </row>
     <row r="75" spans="1:14" ht="18.75" customHeight="1">
       <c r="A75" s="38"/>
@@ -2474,12 +2154,8 @@
       <c r="J75" s="24"/>
       <c r="K75" s="52"/>
       <c r="L75" s="37"/>
-      <c r="M75" s="30">
-        <v>18</v>
-      </c>
-      <c r="N75" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M75" s="30"/>
+      <c r="N75" s="31"/>
     </row>
     <row r="76" spans="1:14" ht="18.75" customHeight="1">
       <c r="A76" s="38"/>
@@ -2494,12 +2170,8 @@
       <c r="J76" s="24"/>
       <c r="K76" s="52"/>
       <c r="L76" s="37"/>
-      <c r="M76" s="30">
-        <v>19</v>
-      </c>
-      <c r="N76" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M76" s="30"/>
+      <c r="N76" s="31"/>
     </row>
     <row r="77" spans="1:14" ht="18.75" customHeight="1">
       <c r="A77" s="38"/>
@@ -2514,12 +2186,8 @@
       <c r="J77" s="24"/>
       <c r="K77" s="52"/>
       <c r="L77" s="37"/>
-      <c r="M77" s="30">
-        <v>20</v>
-      </c>
-      <c r="N77" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M77" s="30"/>
+      <c r="N77" s="31"/>
     </row>
     <row r="78" spans="1:14" ht="18.75" customHeight="1">
       <c r="A78" s="38"/>
@@ -2534,12 +2202,8 @@
       <c r="J78" s="24"/>
       <c r="K78" s="52"/>
       <c r="L78" s="37"/>
-      <c r="M78" s="30">
-        <v>21</v>
-      </c>
-      <c r="N78" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M78" s="30"/>
+      <c r="N78" s="31"/>
     </row>
     <row r="79" spans="1:14" ht="18.75" customHeight="1">
       <c r="A79" s="38"/>
@@ -2554,12 +2218,8 @@
       <c r="J79" s="24"/>
       <c r="K79" s="52"/>
       <c r="L79" s="37"/>
-      <c r="M79" s="30">
-        <v>22</v>
-      </c>
-      <c r="N79" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M79" s="30"/>
+      <c r="N79" s="31"/>
     </row>
     <row r="80" spans="1:14" ht="18.75" customHeight="1">
       <c r="A80" s="38"/>
@@ -2574,12 +2234,8 @@
       <c r="J80" s="24"/>
       <c r="K80" s="52"/>
       <c r="L80" s="37"/>
-      <c r="M80" s="30">
-        <v>23</v>
-      </c>
-      <c r="N80" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M80" s="30"/>
+      <c r="N80" s="31"/>
     </row>
     <row r="81" spans="1:14" ht="18.75" customHeight="1">
       <c r="A81" s="38"/>
@@ -2594,12 +2250,8 @@
       <c r="J81" s="24"/>
       <c r="K81" s="52"/>
       <c r="L81" s="37"/>
-      <c r="M81" s="30">
-        <v>24</v>
-      </c>
-      <c r="N81" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="M81" s="30"/>
+      <c r="N81" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/template/saldo.xlsx
+++ b/public/template/saldo.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1221\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U0153\Desktop\jurnal\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFE279F-CB44-4198-82EA-F001D3BDE8B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист5" sheetId="1" r:id="rId1"/>
@@ -729,7 +730,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -1038,7 +1039,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1337,14 +1338,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:N207"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1533,7 +1534,7 @@
     </row>
     <row r="5" spans="1:14" ht="22.5" customHeight="1">
       <c r="A5" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="32" t="s">
         <v>37</v>
@@ -1575,7 +1576,7 @@
     </row>
     <row r="6" spans="1:14" ht="22.5" customHeight="1">
       <c r="A6" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="35" t="s">
         <v>39</v>
@@ -1613,7 +1614,7 @@
     </row>
     <row r="7" spans="1:14" ht="22.5" customHeight="1">
       <c r="A7" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>40</v>
@@ -1651,7 +1652,7 @@
     </row>
     <row r="8" spans="1:14" ht="23.25" customHeight="1">
       <c r="A8" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" s="36" t="s">
         <v>41</v>
@@ -1689,7 +1690,7 @@
     </row>
     <row r="9" spans="1:14" ht="22.5" customHeight="1">
       <c r="A9" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" s="35" t="s">
         <v>43</v>
@@ -1727,7 +1728,7 @@
     </row>
     <row r="10" spans="1:14" ht="33" customHeight="1">
       <c r="A10" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" s="35" t="s">
         <v>44</v>
@@ -1765,7 +1766,7 @@
     </row>
     <row r="11" spans="1:14" ht="22.5" customHeight="1">
       <c r="A11" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>45</v>
@@ -1803,7 +1804,7 @@
     </row>
     <row r="12" spans="1:14" ht="22.5" customHeight="1">
       <c r="A12" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" s="35" t="s">
         <v>45</v>
@@ -1841,7 +1842,7 @@
     </row>
     <row r="13" spans="1:14" ht="18.75" customHeight="1">
       <c r="A13" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" s="35" t="s">
         <v>46</v>
@@ -1879,7 +1880,7 @@
     </row>
     <row r="14" spans="1:14" ht="18.75" customHeight="1">
       <c r="A14" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>47</v>
@@ -1917,7 +1918,7 @@
     </row>
     <row r="15" spans="1:14" ht="18.75" customHeight="1">
       <c r="A15" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15" s="32" t="s">
         <v>48</v>
@@ -1955,7 +1956,7 @@
     </row>
     <row r="16" spans="1:14" ht="18.75" customHeight="1">
       <c r="A16" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>49</v>
@@ -1993,7 +1994,7 @@
     </row>
     <row r="17" spans="1:14" ht="18.75" customHeight="1">
       <c r="A17" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B17" s="35" t="s">
         <v>44</v>
@@ -2031,7 +2032,7 @@
     </row>
     <row r="18" spans="1:14" ht="18.75" customHeight="1">
       <c r="A18" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>50</v>
@@ -2069,7 +2070,7 @@
     </row>
     <row r="19" spans="1:14" ht="18.75" customHeight="1">
       <c r="A19" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19" s="35" t="s">
         <v>52</v>
@@ -2107,7 +2108,7 @@
     </row>
     <row r="20" spans="1:14" ht="18.75" customHeight="1">
       <c r="A20" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B20" s="32" t="s">
         <v>53</v>
@@ -2145,7 +2146,7 @@
     </row>
     <row r="21" spans="1:14" ht="18.75" customHeight="1">
       <c r="A21" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B21" s="35" t="s">
         <v>44</v>
@@ -2183,7 +2184,7 @@
     </row>
     <row r="22" spans="1:14" ht="18.75" customHeight="1">
       <c r="A22" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B22" s="35" t="s">
         <v>54</v>
@@ -2221,7 +2222,7 @@
     </row>
     <row r="23" spans="1:14" ht="18.75" customHeight="1">
       <c r="A23" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B23" s="35" t="s">
         <v>55</v>
@@ -2259,7 +2260,7 @@
     </row>
     <row r="24" spans="1:14" ht="18.75" customHeight="1">
       <c r="A24" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B24" s="35" t="s">
         <v>56</v>
@@ -2297,7 +2298,7 @@
     </row>
     <row r="25" spans="1:14" ht="18.75" customHeight="1">
       <c r="A25" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B25" s="35" t="s">
         <v>57</v>
@@ -2335,7 +2336,7 @@
     </row>
     <row r="26" spans="1:14" ht="18.75" customHeight="1">
       <c r="A26" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>58</v>
@@ -2373,7 +2374,7 @@
     </row>
     <row r="27" spans="1:14" ht="18.75" customHeight="1">
       <c r="A27" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B27" s="35" t="s">
         <v>59</v>
@@ -2411,7 +2412,7 @@
     </row>
     <row r="28" spans="1:14" ht="18.75" customHeight="1">
       <c r="A28" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B28" s="35" t="s">
         <v>60</v>
@@ -2449,7 +2450,7 @@
     </row>
     <row r="29" spans="1:14" ht="18.75" customHeight="1">
       <c r="A29" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B29" s="35" t="s">
         <v>61</v>
@@ -2487,7 +2488,7 @@
     </row>
     <row r="30" spans="1:14" ht="18.75" customHeight="1">
       <c r="A30" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B30" s="35" t="s">
         <v>62</v>
@@ -2525,7 +2526,7 @@
     </row>
     <row r="31" spans="1:14" ht="18.75" customHeight="1">
       <c r="A31" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B31" s="35" t="s">
         <v>63</v>
@@ -2563,7 +2564,7 @@
     </row>
     <row r="32" spans="1:14" ht="18.75" customHeight="1">
       <c r="A32" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B32" s="35" t="s">
         <v>64</v>
@@ -2601,7 +2602,7 @@
     </row>
     <row r="33" spans="1:14" ht="18.75" customHeight="1">
       <c r="A33" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B33" s="35" t="s">
         <v>65</v>
@@ -2639,7 +2640,7 @@
     </row>
     <row r="34" spans="1:14" ht="18.75" customHeight="1">
       <c r="A34" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B34" s="35" t="s">
         <v>66</v>
@@ -2677,7 +2678,7 @@
     </row>
     <row r="35" spans="1:14" ht="18.75" customHeight="1">
       <c r="A35" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B35" s="37" t="s">
         <v>67</v>
@@ -2715,7 +2716,7 @@
     </row>
     <row r="36" spans="1:14" ht="18.75" customHeight="1">
       <c r="A36" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B36" s="35" t="s">
         <v>67</v>
@@ -2753,7 +2754,7 @@
     </row>
     <row r="37" spans="1:14" ht="18.75" customHeight="1">
       <c r="A37" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B37" s="35" t="s">
         <v>68</v>
@@ -2791,7 +2792,7 @@
     </row>
     <row r="38" spans="1:14" ht="18.75" customHeight="1">
       <c r="A38" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B38" s="35" t="s">
         <v>69</v>
@@ -2829,7 +2830,7 @@
     </row>
     <row r="39" spans="1:14" ht="18.75" customHeight="1">
       <c r="A39" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B39" s="35" t="s">
         <v>70</v>
@@ -2867,7 +2868,7 @@
     </row>
     <row r="40" spans="1:14" ht="18.75" customHeight="1">
       <c r="A40" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B40" s="35" t="s">
         <v>71</v>
@@ -2905,7 +2906,7 @@
     </row>
     <row r="41" spans="1:14" ht="18.75" customHeight="1">
       <c r="A41" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B41" s="35" t="s">
         <v>72</v>
@@ -2943,7 +2944,7 @@
     </row>
     <row r="42" spans="1:14" ht="18.75" customHeight="1">
       <c r="A42" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B42" s="38" t="s">
         <v>73</v>
@@ -2981,7 +2982,7 @@
     </row>
     <row r="43" spans="1:14" ht="18.75" customHeight="1">
       <c r="A43" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B43" s="38" t="s">
         <v>74</v>
@@ -3019,7 +3020,7 @@
     </row>
     <row r="44" spans="1:14" ht="18.75" customHeight="1">
       <c r="A44" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B44" s="38" t="s">
         <v>75</v>
@@ -3057,7 +3058,7 @@
     </row>
     <row r="45" spans="1:14" ht="18.75" customHeight="1">
       <c r="A45" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B45" s="38" t="s">
         <v>76</v>
@@ -3095,7 +3096,7 @@
     </row>
     <row r="46" spans="1:14" ht="18.75" customHeight="1">
       <c r="A46" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B46" s="39" t="s">
         <v>77</v>
@@ -3133,7 +3134,7 @@
     </row>
     <row r="47" spans="1:14" ht="18.75" customHeight="1">
       <c r="A47" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B47" s="38" t="s">
         <v>78</v>
@@ -3171,7 +3172,7 @@
     </row>
     <row r="48" spans="1:14" ht="18.75" customHeight="1">
       <c r="A48" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B48" s="38" t="s">
         <v>79</v>
@@ -3209,7 +3210,7 @@
     </row>
     <row r="49" spans="1:14" ht="18.75" customHeight="1">
       <c r="A49" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B49" s="38" t="s">
         <v>80</v>
@@ -3247,7 +3248,7 @@
     </row>
     <row r="50" spans="1:14" ht="18.75" customHeight="1">
       <c r="A50" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B50" s="38" t="s">
         <v>81</v>
@@ -3285,7 +3286,7 @@
     </row>
     <row r="51" spans="1:14" ht="18.75" customHeight="1">
       <c r="A51" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B51" s="39" t="s">
         <v>82</v>
@@ -3323,7 +3324,7 @@
     </row>
     <row r="52" spans="1:14" ht="18.75" customHeight="1">
       <c r="A52" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B52" s="38" t="s">
         <v>83</v>
@@ -3361,7 +3362,7 @@
     </row>
     <row r="53" spans="1:14" ht="18.75" customHeight="1">
       <c r="A53" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B53" s="38" t="s">
         <v>84</v>
@@ -3399,7 +3400,7 @@
     </row>
     <row r="54" spans="1:14" ht="18.75" customHeight="1">
       <c r="A54" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B54" s="38" t="s">
         <v>85</v>
@@ -3437,7 +3438,7 @@
     </row>
     <row r="55" spans="1:14" ht="18.75" customHeight="1">
       <c r="A55" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B55" s="38" t="s">
         <v>86</v>
@@ -3475,7 +3476,7 @@
     </row>
     <row r="56" spans="1:14" ht="18.75" customHeight="1">
       <c r="A56" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B56" s="40" t="s">
         <v>87</v>
@@ -3513,7 +3514,7 @@
     </row>
     <row r="57" spans="1:14" ht="18.75" customHeight="1">
       <c r="A57" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B57" s="40" t="s">
         <v>88</v>
@@ -3551,7 +3552,7 @@
     </row>
     <row r="58" spans="1:14" ht="18.75" customHeight="1">
       <c r="A58" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B58" s="41" t="s">
         <v>89</v>
@@ -3589,7 +3590,7 @@
     </row>
     <row r="59" spans="1:14" ht="18.75" customHeight="1">
       <c r="A59" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B59" s="42" t="s">
         <v>90</v>
@@ -3627,7 +3628,7 @@
     </row>
     <row r="60" spans="1:14" ht="18.75" customHeight="1">
       <c r="A60" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B60" s="42" t="s">
         <v>91</v>
@@ -3665,7 +3666,7 @@
     </row>
     <row r="61" spans="1:14" ht="18.75" customHeight="1">
       <c r="A61" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B61" s="42" t="s">
         <v>92</v>
@@ -3703,7 +3704,7 @@
     </row>
     <row r="62" spans="1:14" ht="18.75" customHeight="1">
       <c r="A62" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B62" s="42" t="s">
         <v>93</v>
@@ -3741,7 +3742,7 @@
     </row>
     <row r="63" spans="1:14" ht="18.75" customHeight="1">
       <c r="A63" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B63" s="42" t="s">
         <v>94</v>
@@ -3779,7 +3780,7 @@
     </row>
     <row r="64" spans="1:14" ht="18.75" customHeight="1">
       <c r="A64" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B64" s="42" t="s">
         <v>95</v>
@@ -3817,7 +3818,7 @@
     </row>
     <row r="65" spans="1:14" ht="18.75" customHeight="1">
       <c r="A65" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B65" s="42" t="s">
         <v>96</v>
@@ -3855,7 +3856,7 @@
     </row>
     <row r="66" spans="1:14" ht="18.75" customHeight="1">
       <c r="A66" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B66" s="42" t="s">
         <v>97</v>
@@ -3893,7 +3894,7 @@
     </row>
     <row r="67" spans="1:14" ht="18.75" customHeight="1">
       <c r="A67" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B67" s="42" t="s">
         <v>98</v>
@@ -3931,7 +3932,7 @@
     </row>
     <row r="68" spans="1:14" ht="18.75" customHeight="1">
       <c r="A68" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B68" s="42" t="s">
         <v>99</v>
@@ -3969,7 +3970,7 @@
     </row>
     <row r="69" spans="1:14" ht="18.75" customHeight="1">
       <c r="A69" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B69" s="42" t="s">
         <v>100</v>
@@ -4007,7 +4008,7 @@
     </row>
     <row r="70" spans="1:14" ht="18.75" customHeight="1">
       <c r="A70" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B70" s="42" t="s">
         <v>101</v>
@@ -4045,7 +4046,7 @@
     </row>
     <row r="71" spans="1:14" ht="18.75" customHeight="1">
       <c r="A71" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B71" s="42" t="s">
         <v>102</v>
@@ -4083,7 +4084,7 @@
     </row>
     <row r="72" spans="1:14" ht="18.75" customHeight="1">
       <c r="A72" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B72" s="42" t="s">
         <v>103</v>
@@ -4121,7 +4122,7 @@
     </row>
     <row r="73" spans="1:14" ht="18.75" customHeight="1">
       <c r="A73" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B73" s="42" t="s">
         <v>104</v>
@@ -4159,7 +4160,7 @@
     </row>
     <row r="74" spans="1:14" ht="18.75" customHeight="1">
       <c r="A74" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B74" s="42" t="s">
         <v>105</v>
@@ -4197,7 +4198,7 @@
     </row>
     <row r="75" spans="1:14" ht="18.75" customHeight="1">
       <c r="A75" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B75" s="42" t="s">
         <v>106</v>
@@ -4235,7 +4236,7 @@
     </row>
     <row r="76" spans="1:14" ht="18.75" customHeight="1">
       <c r="A76" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B76" s="42" t="s">
         <v>107</v>
@@ -4273,7 +4274,7 @@
     </row>
     <row r="77" spans="1:14" ht="18.75" customHeight="1">
       <c r="A77" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B77" s="42" t="s">
         <v>108</v>
@@ -4311,7 +4312,7 @@
     </row>
     <row r="78" spans="1:14" ht="18.75" customHeight="1">
       <c r="A78" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B78" s="42" t="s">
         <v>109</v>
@@ -4349,7 +4350,7 @@
     </row>
     <row r="79" spans="1:14" ht="18.75" customHeight="1">
       <c r="A79" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B79" s="42" t="s">
         <v>56</v>
@@ -4387,7 +4388,7 @@
     </row>
     <row r="80" spans="1:14" ht="18.75" customHeight="1">
       <c r="A80" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B80" s="42" t="s">
         <v>110</v>
@@ -4425,7 +4426,7 @@
     </row>
     <row r="81" spans="1:14" ht="18.75" customHeight="1">
       <c r="A81" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B81" s="42" t="s">
         <v>52</v>
@@ -4463,7 +4464,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B82" s="43" t="s">
         <v>111</v>
@@ -4501,7 +4502,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B83" s="43" t="s">
         <v>112</v>
@@ -4539,7 +4540,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B84" s="43" t="s">
         <v>100</v>
@@ -4577,7 +4578,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B85" s="43" t="s">
         <v>113</v>
@@ -4615,7 +4616,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B86" s="43" t="s">
         <v>114</v>
@@ -4653,7 +4654,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B87" s="43" t="s">
         <v>116</v>
@@ -4691,7 +4692,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B88" s="43" t="s">
         <v>117</v>
@@ -4729,7 +4730,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B89" s="43" t="s">
         <v>118</v>
@@ -4767,7 +4768,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B90" s="43" t="s">
         <v>119</v>
@@ -4805,7 +4806,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B91" s="43" t="s">
         <v>120</v>
@@ -4843,7 +4844,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B92" s="43" t="s">
         <v>121</v>
@@ -4881,7 +4882,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B93" s="43" t="s">
         <v>122</v>
@@ -4919,7 +4920,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B94" s="43" t="s">
         <v>123</v>
@@ -4957,7 +4958,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B95" s="43" t="s">
         <v>124</v>
@@ -4995,7 +4996,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B96" s="43" t="s">
         <v>125</v>
@@ -5033,7 +5034,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B97" s="43" t="s">
         <v>126</v>
@@ -5071,7 +5072,7 @@
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B98" s="43" t="s">
         <v>127</v>
@@ -5109,7 +5110,7 @@
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B99" s="43" t="s">
         <v>128</v>
@@ -5147,7 +5148,7 @@
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B100" s="43" t="s">
         <v>129</v>
@@ -5185,7 +5186,7 @@
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B101" s="43" t="s">
         <v>130</v>
@@ -5223,7 +5224,7 @@
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B102" s="43" t="s">
         <v>131</v>
@@ -5261,7 +5262,7 @@
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B103" s="43" t="s">
         <v>132</v>
@@ -5299,7 +5300,7 @@
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B104" s="43" t="s">
         <v>133</v>
@@ -5337,7 +5338,7 @@
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B105" s="43" t="s">
         <v>134</v>
@@ -5375,7 +5376,7 @@
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B106" s="43" t="s">
         <v>112</v>
@@ -5413,7 +5414,7 @@
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B107" s="43" t="s">
         <v>112</v>
@@ -5451,7 +5452,7 @@
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B108" s="43" t="s">
         <v>52</v>
@@ -5489,7 +5490,7 @@
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B109" s="43" t="s">
         <v>65</v>
@@ -5527,7 +5528,7 @@
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B110" s="43" t="s">
         <v>136</v>
@@ -5565,7 +5566,7 @@
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B111" s="43" t="s">
         <v>137</v>
@@ -5603,7 +5604,7 @@
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B112" s="43" t="s">
         <v>138</v>
@@ -5641,7 +5642,7 @@
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B113" s="43" t="s">
         <v>139</v>
@@ -5679,7 +5680,7 @@
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B114" s="43" t="s">
         <v>140</v>
@@ -5717,7 +5718,7 @@
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B115" s="43" t="s">
         <v>141</v>
@@ -5755,7 +5756,7 @@
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B116" s="43" t="s">
         <v>142</v>
@@ -5793,7 +5794,7 @@
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B117" s="43" t="s">
         <v>143</v>
@@ -5831,7 +5832,7 @@
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B118" s="43" t="s">
         <v>144</v>
@@ -5869,7 +5870,7 @@
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B119" s="43" t="s">
         <v>145</v>
@@ -5907,7 +5908,7 @@
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B120" s="43" t="s">
         <v>146</v>
@@ -5945,7 +5946,7 @@
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B121" s="43" t="s">
         <v>147</v>
@@ -5983,7 +5984,7 @@
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B122" s="43" t="s">
         <v>148</v>
@@ -6021,7 +6022,7 @@
     </row>
     <row r="123" spans="1:14">
       <c r="A123" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B123" s="43" t="s">
         <v>150</v>
@@ -6059,7 +6060,7 @@
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B124" s="43" t="s">
         <v>151</v>
@@ -6097,7 +6098,7 @@
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B125" s="43" t="s">
         <v>153</v>
@@ -6135,7 +6136,7 @@
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B126" s="43" t="s">
         <v>155</v>
@@ -6173,7 +6174,7 @@
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B127" s="43" t="s">
         <v>156</v>
@@ -6211,7 +6212,7 @@
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B128" s="43" t="s">
         <v>157</v>
@@ -6249,7 +6250,7 @@
     </row>
     <row r="129" spans="1:14">
       <c r="A129" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B129" s="43" t="s">
         <v>158</v>
@@ -6287,7 +6288,7 @@
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B130" s="43" t="s">
         <v>159</v>
@@ -6325,7 +6326,7 @@
     </row>
     <row r="131" spans="1:14">
       <c r="A131" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B131" s="43" t="s">
         <v>160</v>
@@ -6363,7 +6364,7 @@
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B132" s="43" t="s">
         <v>50</v>
@@ -6401,7 +6402,7 @@
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B133" s="43" t="s">
         <v>162</v>
@@ -6439,7 +6440,7 @@
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B134" s="43" t="s">
         <v>163</v>
@@ -6477,7 +6478,7 @@
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B135" s="43" t="s">
         <v>164</v>
@@ -6515,7 +6516,7 @@
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B136" s="43" t="s">
         <v>165</v>
@@ -6553,7 +6554,7 @@
     </row>
     <row r="137" spans="1:14">
       <c r="A137" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B137" s="43" t="s">
         <v>166</v>
@@ -6591,7 +6592,7 @@
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B138" s="43" t="s">
         <v>167</v>
@@ -6629,7 +6630,7 @@
     </row>
     <row r="139" spans="1:14">
       <c r="A139" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B139" s="43" t="s">
         <v>168</v>
@@ -6667,7 +6668,7 @@
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B140" s="43" t="s">
         <v>169</v>
@@ -6705,7 +6706,7 @@
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B141" s="43" t="s">
         <v>170</v>
@@ -6743,7 +6744,7 @@
     </row>
     <row r="142" spans="1:14">
       <c r="A142" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B142" s="43" t="s">
         <v>166</v>
@@ -6781,7 +6782,7 @@
     </row>
     <row r="143" spans="1:14">
       <c r="A143" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B143" s="43" t="s">
         <v>171</v>
@@ -6819,7 +6820,7 @@
     </row>
     <row r="144" spans="1:14">
       <c r="A144" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B144" s="43" t="s">
         <v>172</v>
@@ -6857,7 +6858,7 @@
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B145" s="43" t="s">
         <v>171</v>
@@ -6895,7 +6896,7 @@
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B146" s="43" t="s">
         <v>173</v>
@@ -6933,7 +6934,7 @@
     </row>
     <row r="147" spans="1:14">
       <c r="A147" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B147" s="43" t="s">
         <v>174</v>
@@ -6971,7 +6972,7 @@
     </row>
     <row r="148" spans="1:14">
       <c r="A148" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B148" s="43" t="s">
         <v>175</v>
@@ -7009,7 +7010,7 @@
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B149" s="43" t="s">
         <v>176</v>
@@ -7047,7 +7048,7 @@
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B150" s="43" t="s">
         <v>177</v>
@@ -7085,7 +7086,7 @@
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B151" s="43" t="s">
         <v>178</v>
@@ -7123,7 +7124,7 @@
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B152" s="43" t="s">
         <v>179</v>
@@ -7161,7 +7162,7 @@
     </row>
     <row r="153" spans="1:14">
       <c r="A153" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B153" s="43" t="s">
         <v>180</v>
@@ -7199,7 +7200,7 @@
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B154" s="43" t="s">
         <v>181</v>
@@ -7237,7 +7238,7 @@
     </row>
     <row r="155" spans="1:14">
       <c r="A155" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B155" s="43" t="s">
         <v>182</v>
@@ -7275,7 +7276,7 @@
     </row>
     <row r="156" spans="1:14">
       <c r="A156" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B156" s="43" t="s">
         <v>183</v>
@@ -7313,7 +7314,7 @@
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B157" s="43" t="s">
         <v>184</v>
@@ -7351,7 +7352,7 @@
     </row>
     <row r="158" spans="1:14">
       <c r="A158" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B158" s="43" t="s">
         <v>185</v>
@@ -7389,7 +7390,7 @@
     </row>
     <row r="159" spans="1:14">
       <c r="A159" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B159" s="43" t="s">
         <v>186</v>
@@ -7427,7 +7428,7 @@
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B160" s="43" t="s">
         <v>187</v>
@@ -7465,7 +7466,7 @@
     </row>
     <row r="161" spans="1:14">
       <c r="A161" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B161" s="43" t="s">
         <v>189</v>
@@ -7503,7 +7504,7 @@
     </row>
     <row r="162" spans="1:14">
       <c r="A162" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B162" s="43" t="s">
         <v>190</v>
@@ -7541,7 +7542,7 @@
     </row>
     <row r="163" spans="1:14">
       <c r="A163" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B163" s="43" t="s">
         <v>191</v>
@@ -7579,7 +7580,7 @@
     </row>
     <row r="164" spans="1:14">
       <c r="A164" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B164" s="43" t="s">
         <v>192</v>
@@ -7617,7 +7618,7 @@
     </row>
     <row r="165" spans="1:14">
       <c r="A165" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B165" s="43" t="s">
         <v>193</v>
@@ -7655,7 +7656,7 @@
     </row>
     <row r="166" spans="1:14">
       <c r="A166" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B166" s="43" t="s">
         <v>194</v>
@@ -7693,7 +7694,7 @@
     </row>
     <row r="167" spans="1:14">
       <c r="A167" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B167" s="43" t="s">
         <v>195</v>
@@ -7731,7 +7732,7 @@
     </row>
     <row r="168" spans="1:14">
       <c r="A168" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B168" s="43" t="s">
         <v>196</v>
@@ -7769,7 +7770,7 @@
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B169" s="43" t="s">
         <v>197</v>
@@ -7807,7 +7808,7 @@
     </row>
     <row r="170" spans="1:14">
       <c r="A170" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B170" s="43" t="s">
         <v>181</v>
@@ -7845,7 +7846,7 @@
     </row>
     <row r="171" spans="1:14">
       <c r="A171" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B171" s="43" t="s">
         <v>198</v>
@@ -7883,7 +7884,7 @@
     </row>
     <row r="172" spans="1:14">
       <c r="A172" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B172" s="43" t="s">
         <v>199</v>
@@ -7921,7 +7922,7 @@
     </row>
     <row r="173" spans="1:14">
       <c r="A173" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B173" s="43" t="s">
         <v>201</v>
@@ -7959,7 +7960,7 @@
     </row>
     <row r="174" spans="1:14">
       <c r="A174" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B174" s="43" t="s">
         <v>202</v>
@@ -7997,7 +7998,7 @@
     </row>
     <row r="175" spans="1:14">
       <c r="A175" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B175" s="43" t="s">
         <v>203</v>
@@ -8035,7 +8036,7 @@
     </row>
     <row r="176" spans="1:14">
       <c r="A176" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B176" s="43" t="s">
         <v>204</v>
@@ -8073,7 +8074,7 @@
     </row>
     <row r="177" spans="1:14">
       <c r="A177" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B177" s="43" t="s">
         <v>205</v>
@@ -8111,7 +8112,7 @@
     </row>
     <row r="178" spans="1:14">
       <c r="A178" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B178" s="43" t="s">
         <v>206</v>
@@ -8149,7 +8150,7 @@
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B179" s="43" t="s">
         <v>207</v>
@@ -8187,7 +8188,7 @@
     </row>
     <row r="180" spans="1:14">
       <c r="A180" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B180" s="43" t="s">
         <v>208</v>
@@ -8225,7 +8226,7 @@
     </row>
     <row r="181" spans="1:14">
       <c r="A181" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B181" s="43" t="s">
         <v>209</v>
@@ -8263,7 +8264,7 @@
     </row>
     <row r="182" spans="1:14">
       <c r="A182" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B182" s="43" t="s">
         <v>210</v>
@@ -8301,7 +8302,7 @@
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B183" s="43" t="s">
         <v>211</v>
@@ -8339,7 +8340,7 @@
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B184" s="43" t="s">
         <v>212</v>
@@ -8377,7 +8378,7 @@
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B185" s="43" t="s">
         <v>178</v>
@@ -8415,7 +8416,7 @@
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B186" s="43" t="s">
         <v>213</v>
@@ -8453,7 +8454,7 @@
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B187" s="43" t="s">
         <v>213</v>
@@ -8491,7 +8492,7 @@
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B188" s="43" t="s">
         <v>214</v>
@@ -8529,7 +8530,7 @@
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B189" s="43" t="s">
         <v>215</v>
@@ -8567,7 +8568,7 @@
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B190" s="43" t="s">
         <v>186</v>
@@ -8605,7 +8606,7 @@
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B191" s="43" t="s">
         <v>187</v>
@@ -8643,7 +8644,7 @@
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B192" s="43" t="s">
         <v>182</v>
@@ -8681,7 +8682,7 @@
     </row>
     <row r="193" spans="1:14">
       <c r="A193" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B193" s="43" t="s">
         <v>216</v>
@@ -8719,7 +8720,7 @@
     </row>
     <row r="194" spans="1:14">
       <c r="A194" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B194" s="43" t="s">
         <v>217</v>
@@ -8757,7 +8758,7 @@
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B195" s="43" t="s">
         <v>218</v>
@@ -8795,7 +8796,7 @@
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B196" s="43" t="s">
         <v>219</v>
@@ -8833,7 +8834,7 @@
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B197" s="43" t="s">
         <v>220</v>
@@ -8871,7 +8872,7 @@
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B198" s="43" t="s">
         <v>221</v>
@@ -8909,7 +8910,7 @@
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B199" s="43" t="s">
         <v>222</v>
@@ -8947,7 +8948,7 @@
     </row>
     <row r="200" spans="1:14">
       <c r="A200" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B200" s="43" t="s">
         <v>179</v>
@@ -8985,7 +8986,7 @@
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B201" s="43" t="s">
         <v>180</v>
@@ -9023,7 +9024,7 @@
     </row>
     <row r="202" spans="1:14">
       <c r="A202" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B202" s="43" t="s">
         <v>223</v>
@@ -9061,7 +9062,7 @@
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B203" s="43" t="s">
         <v>224</v>
@@ -9099,7 +9100,7 @@
     </row>
     <row r="204" spans="1:14">
       <c r="A204" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B204" s="43" t="s">
         <v>225</v>
@@ -9137,7 +9138,7 @@
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B205" s="43" t="s">
         <v>183</v>
@@ -9175,7 +9176,7 @@
     </row>
     <row r="206" spans="1:14">
       <c r="A206" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B206" s="43" t="s">
         <v>226</v>
@@ -9213,7 +9214,7 @@
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B207" s="43" t="s">
         <v>227</v>

--- a/public/template/saldo.xlsx
+++ b/public/template/saldo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U0153\Desktop\jurnal\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFE279F-CB44-4198-82EA-F001D3BDE8B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAAD657-C064-4830-8C3D-1C260B9B2969}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,9 +97,6 @@
     <t xml:space="preserve">agar iznos olinsa va eski iznos summa bolsa raqam formatida yozib qoldiring </t>
   </si>
   <si>
-    <t xml:space="preserve">prixod bolgan document raqami toldirilishi shart text bolishi kerak  </t>
-  </si>
-  <si>
     <t>1, 2, 3, 4 qatorlarga iltimos tegmang</t>
   </si>
   <si>
@@ -715,9 +712,6 @@
     <t>00</t>
   </si>
   <si>
-    <t>prixod bolgan document  sanasi toldirishi shart  format text bolishi kerak/ Sana formati : kun/oy/yil Masalan : 01/01/2025  2025 yil 1- yanvar</t>
-  </si>
-  <si>
     <t>1/ 2/ 3/ 4 qatorlarga iltimos tegmang</t>
   </si>
   <si>
@@ -725,6 +719,12 @@
   </si>
   <si>
     <t>123213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prixod bolgan document raqami text bolishi kerak  </t>
+  </si>
+  <si>
+    <t>prixod bolgan document  sanasi   format text bolishi kerak / Sana formati : kun/oy/yil Masalan : 01/01/2025  2025 yil 1- yanvar</t>
   </si>
 </sst>
 </file>
@@ -1345,7 +1345,7 @@
   <dimension ref="A1:N207"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1442,93 +1442,93 @@
         <v>23</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>24</v>
+        <v>232</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" ht="72" customHeight="1">
       <c r="A3" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="N3" s="51"/>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="22.5" customHeight="1">
       <c r="A4" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="C4" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="19" t="s">
+      <c r="E4" s="19" t="s">
         <v>28</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>29</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>31</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>8</v>
       </c>
       <c r="J4" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="L4" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="M4" s="23" t="s">
         <v>34</v>
-      </c>
-      <c r="M4" s="23" t="s">
-        <v>35</v>
       </c>
       <c r="N4" s="51"/>
     </row>
@@ -1537,19 +1537,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="33">
         <v>464</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" s="45">
         <v>12</v>
@@ -1569,9 +1569,7 @@
       <c r="L5" s="47">
         <v>0</v>
       </c>
-      <c r="M5" s="51">
-        <v>45657</v>
-      </c>
+      <c r="M5" s="51"/>
       <c r="N5" s="49"/>
     </row>
     <row r="6" spans="1:14" ht="22.5" customHeight="1">
@@ -1579,7 +1577,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="33">
         <v>464</v>
@@ -1587,7 +1585,7 @@
       <c r="D6" s="50"/>
       <c r="E6" s="50"/>
       <c r="F6" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="45">
         <v>12</v>
@@ -1617,7 +1615,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="33">
         <v>464</v>
@@ -1625,7 +1623,7 @@
       <c r="D7" s="50"/>
       <c r="E7" s="50"/>
       <c r="F7" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="45">
         <v>12</v>
@@ -1655,7 +1653,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="33">
         <v>464</v>
@@ -1663,7 +1661,7 @@
       <c r="D8" s="50"/>
       <c r="E8" s="50"/>
       <c r="F8" s="45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" s="45">
         <v>12</v>
@@ -1693,7 +1691,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="33">
         <v>464</v>
@@ -1701,7 +1699,7 @@
       <c r="D9" s="50"/>
       <c r="E9" s="50"/>
       <c r="F9" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" s="45">
         <v>12</v>
@@ -1731,7 +1729,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="33">
         <v>464</v>
@@ -1739,7 +1737,7 @@
       <c r="D10" s="50"/>
       <c r="E10" s="50"/>
       <c r="F10" s="45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="45">
         <v>12</v>
@@ -1769,7 +1767,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="33">
         <v>464</v>
@@ -1777,7 +1775,7 @@
       <c r="D11" s="50"/>
       <c r="E11" s="50"/>
       <c r="F11" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="45">
         <v>12</v>
@@ -1807,7 +1805,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="33">
         <v>464</v>
@@ -1815,7 +1813,7 @@
       <c r="D12" s="50"/>
       <c r="E12" s="50"/>
       <c r="F12" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12" s="45">
         <v>12</v>
@@ -1845,7 +1843,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="33">
         <v>464</v>
@@ -1853,7 +1851,7 @@
       <c r="D13" s="50"/>
       <c r="E13" s="50"/>
       <c r="F13" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13" s="45">
         <v>12</v>
@@ -1883,7 +1881,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="33">
         <v>464</v>
@@ -1891,7 +1889,7 @@
       <c r="D14" s="50"/>
       <c r="E14" s="50"/>
       <c r="F14" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14" s="45">
         <v>12</v>
@@ -1921,7 +1919,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="33">
         <v>464</v>
@@ -1929,7 +1927,7 @@
       <c r="D15" s="50"/>
       <c r="E15" s="50"/>
       <c r="F15" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G15" s="45">
         <v>12</v>
@@ -1959,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="33">
         <v>464</v>
@@ -1967,7 +1965,7 @@
       <c r="D16" s="50"/>
       <c r="E16" s="50"/>
       <c r="F16" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G16" s="45">
         <v>12</v>
@@ -1997,7 +1995,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="33">
         <v>464</v>
@@ -2005,7 +2003,7 @@
       <c r="D17" s="50"/>
       <c r="E17" s="50"/>
       <c r="F17" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G17" s="45">
         <v>12</v>
@@ -2035,7 +2033,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="33">
         <v>464</v>
@@ -2043,7 +2041,7 @@
       <c r="D18" s="50"/>
       <c r="E18" s="50"/>
       <c r="F18" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G18" s="45">
         <v>12</v>
@@ -2073,7 +2071,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="33">
         <v>464</v>
@@ -2081,7 +2079,7 @@
       <c r="D19" s="50"/>
       <c r="E19" s="50"/>
       <c r="F19" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" s="45">
         <v>12</v>
@@ -2111,7 +2109,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="33">
         <v>464</v>
@@ -2119,7 +2117,7 @@
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
       <c r="F20" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G20" s="45">
         <v>12</v>
@@ -2149,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="33">
         <v>464</v>
@@ -2157,7 +2155,7 @@
       <c r="D21" s="50"/>
       <c r="E21" s="50"/>
       <c r="F21" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G21" s="45">
         <v>12</v>
@@ -2187,7 +2185,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="33">
         <v>464</v>
@@ -2195,7 +2193,7 @@
       <c r="D22" s="50"/>
       <c r="E22" s="50"/>
       <c r="F22" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G22" s="45">
         <v>12</v>
@@ -2225,7 +2223,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="33">
         <v>464</v>
@@ -2233,7 +2231,7 @@
       <c r="D23" s="50"/>
       <c r="E23" s="50"/>
       <c r="F23" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G23" s="45">
         <v>12</v>
@@ -2263,7 +2261,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" s="33">
         <v>464</v>
@@ -2271,7 +2269,7 @@
       <c r="D24" s="50"/>
       <c r="E24" s="50"/>
       <c r="F24" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G24" s="45">
         <v>12</v>
@@ -2301,7 +2299,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="33">
         <v>464</v>
@@ -2309,7 +2307,7 @@
       <c r="D25" s="50"/>
       <c r="E25" s="50"/>
       <c r="F25" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G25" s="45">
         <v>12</v>
@@ -2339,7 +2337,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="33">
         <v>464</v>
@@ -2347,7 +2345,7 @@
       <c r="D26" s="50"/>
       <c r="E26" s="50"/>
       <c r="F26" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G26" s="45">
         <v>12</v>
@@ -2377,7 +2375,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="33">
         <v>464</v>
@@ -2385,7 +2383,7 @@
       <c r="D27" s="50"/>
       <c r="E27" s="50"/>
       <c r="F27" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27" s="45">
         <v>12</v>
@@ -2415,7 +2413,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28" s="33">
         <v>464</v>
@@ -2423,7 +2421,7 @@
       <c r="D28" s="50"/>
       <c r="E28" s="50"/>
       <c r="F28" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G28" s="45">
         <v>12</v>
@@ -2453,7 +2451,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C29" s="33">
         <v>464</v>
@@ -2461,7 +2459,7 @@
       <c r="D29" s="50"/>
       <c r="E29" s="50"/>
       <c r="F29" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G29" s="45">
         <v>12</v>
@@ -2491,7 +2489,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="33">
         <v>464</v>
@@ -2499,7 +2497,7 @@
       <c r="D30" s="50"/>
       <c r="E30" s="50"/>
       <c r="F30" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G30" s="45">
         <v>12</v>
@@ -2529,7 +2527,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="33">
         <v>464</v>
@@ -2537,7 +2535,7 @@
       <c r="D31" s="50"/>
       <c r="E31" s="50"/>
       <c r="F31" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G31" s="45">
         <v>12</v>
@@ -2567,7 +2565,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32" s="33">
         <v>464</v>
@@ -2575,7 +2573,7 @@
       <c r="D32" s="50"/>
       <c r="E32" s="50"/>
       <c r="F32" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G32" s="45">
         <v>12</v>
@@ -2605,7 +2603,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C33" s="33">
         <v>464</v>
@@ -2613,7 +2611,7 @@
       <c r="D33" s="50"/>
       <c r="E33" s="50"/>
       <c r="F33" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G33" s="45">
         <v>12</v>
@@ -2643,7 +2641,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C34" s="33">
         <v>464</v>
@@ -2651,7 +2649,7 @@
       <c r="D34" s="50"/>
       <c r="E34" s="50"/>
       <c r="F34" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G34" s="45">
         <v>12</v>
@@ -2681,7 +2679,7 @@
         <v>3</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C35" s="33">
         <v>464</v>
@@ -2689,7 +2687,7 @@
       <c r="D35" s="50"/>
       <c r="E35" s="50"/>
       <c r="F35" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G35" s="45">
         <v>12</v>
@@ -2719,7 +2717,7 @@
         <v>3</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C36" s="33">
         <v>464</v>
@@ -2727,7 +2725,7 @@
       <c r="D36" s="50"/>
       <c r="E36" s="50"/>
       <c r="F36" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G36" s="45">
         <v>12</v>
@@ -2757,7 +2755,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C37" s="33">
         <v>464</v>
@@ -2765,7 +2763,7 @@
       <c r="D37" s="50"/>
       <c r="E37" s="50"/>
       <c r="F37" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G37" s="45">
         <v>12</v>
@@ -2795,7 +2793,7 @@
         <v>3</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C38" s="33">
         <v>464</v>
@@ -2803,7 +2801,7 @@
       <c r="D38" s="50"/>
       <c r="E38" s="50"/>
       <c r="F38" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G38" s="45">
         <v>12</v>
@@ -2833,7 +2831,7 @@
         <v>3</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" s="33">
         <v>464</v>
@@ -2841,7 +2839,7 @@
       <c r="D39" s="50"/>
       <c r="E39" s="50"/>
       <c r="F39" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G39" s="45">
         <v>12</v>
@@ -2871,7 +2869,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40" s="33">
         <v>464</v>
@@ -2879,7 +2877,7 @@
       <c r="D40" s="50"/>
       <c r="E40" s="50"/>
       <c r="F40" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G40" s="45">
         <v>12</v>
@@ -2909,7 +2907,7 @@
         <v>3</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C41" s="33">
         <v>464</v>
@@ -2917,7 +2915,7 @@
       <c r="D41" s="50"/>
       <c r="E41" s="50"/>
       <c r="F41" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G41" s="45">
         <v>12</v>
@@ -2947,7 +2945,7 @@
         <v>3</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42" s="33">
         <v>464</v>
@@ -2955,7 +2953,7 @@
       <c r="D42" s="50"/>
       <c r="E42" s="50"/>
       <c r="F42" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G42" s="45">
         <v>12</v>
@@ -2985,7 +2983,7 @@
         <v>3</v>
       </c>
       <c r="B43" s="38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C43" s="33">
         <v>464</v>
@@ -2993,7 +2991,7 @@
       <c r="D43" s="50"/>
       <c r="E43" s="50"/>
       <c r="F43" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G43" s="45">
         <v>12</v>
@@ -3023,7 +3021,7 @@
         <v>3</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C44" s="33">
         <v>464</v>
@@ -3031,7 +3029,7 @@
       <c r="D44" s="50"/>
       <c r="E44" s="50"/>
       <c r="F44" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G44" s="45">
         <v>12</v>
@@ -3061,7 +3059,7 @@
         <v>3</v>
       </c>
       <c r="B45" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C45" s="33">
         <v>464</v>
@@ -3069,7 +3067,7 @@
       <c r="D45" s="50"/>
       <c r="E45" s="50"/>
       <c r="F45" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G45" s="45">
         <v>12</v>
@@ -3099,7 +3097,7 @@
         <v>3</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C46" s="33">
         <v>464</v>
@@ -3107,7 +3105,7 @@
       <c r="D46" s="50"/>
       <c r="E46" s="50"/>
       <c r="F46" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G46" s="45">
         <v>12</v>
@@ -3137,7 +3135,7 @@
         <v>3</v>
       </c>
       <c r="B47" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="33">
         <v>464</v>
@@ -3145,7 +3143,7 @@
       <c r="D47" s="50"/>
       <c r="E47" s="50"/>
       <c r="F47" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G47" s="45">
         <v>12</v>
@@ -3175,7 +3173,7 @@
         <v>3</v>
       </c>
       <c r="B48" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C48" s="33">
         <v>464</v>
@@ -3183,7 +3181,7 @@
       <c r="D48" s="50"/>
       <c r="E48" s="50"/>
       <c r="F48" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G48" s="45">
         <v>12</v>
@@ -3213,7 +3211,7 @@
         <v>3</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C49" s="33">
         <v>464</v>
@@ -3221,7 +3219,7 @@
       <c r="D49" s="50"/>
       <c r="E49" s="50"/>
       <c r="F49" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G49" s="45">
         <v>12</v>
@@ -3251,7 +3249,7 @@
         <v>3</v>
       </c>
       <c r="B50" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C50" s="33">
         <v>464</v>
@@ -3259,7 +3257,7 @@
       <c r="D50" s="50"/>
       <c r="E50" s="50"/>
       <c r="F50" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G50" s="45">
         <v>12</v>
@@ -3289,7 +3287,7 @@
         <v>3</v>
       </c>
       <c r="B51" s="39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C51" s="33">
         <v>464</v>
@@ -3297,7 +3295,7 @@
       <c r="D51" s="50"/>
       <c r="E51" s="50"/>
       <c r="F51" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G51" s="45">
         <v>12</v>
@@ -3327,7 +3325,7 @@
         <v>3</v>
       </c>
       <c r="B52" s="38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C52" s="33">
         <v>464</v>
@@ -3335,7 +3333,7 @@
       <c r="D52" s="50"/>
       <c r="E52" s="50"/>
       <c r="F52" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G52" s="45">
         <v>12</v>
@@ -3365,7 +3363,7 @@
         <v>3</v>
       </c>
       <c r="B53" s="38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C53" s="33">
         <v>464</v>
@@ -3373,7 +3371,7 @@
       <c r="D53" s="50"/>
       <c r="E53" s="50"/>
       <c r="F53" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G53" s="45">
         <v>12</v>
@@ -3403,7 +3401,7 @@
         <v>3</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C54" s="33">
         <v>464</v>
@@ -3411,7 +3409,7 @@
       <c r="D54" s="50"/>
       <c r="E54" s="50"/>
       <c r="F54" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G54" s="45">
         <v>12</v>
@@ -3441,7 +3439,7 @@
         <v>3</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C55" s="33">
         <v>464</v>
@@ -3449,7 +3447,7 @@
       <c r="D55" s="50"/>
       <c r="E55" s="50"/>
       <c r="F55" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G55" s="45">
         <v>12</v>
@@ -3479,7 +3477,7 @@
         <v>3</v>
       </c>
       <c r="B56" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C56" s="33">
         <v>464</v>
@@ -3487,7 +3485,7 @@
       <c r="D56" s="50"/>
       <c r="E56" s="50"/>
       <c r="F56" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G56" s="45">
         <v>12</v>
@@ -3517,7 +3515,7 @@
         <v>3</v>
       </c>
       <c r="B57" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C57" s="33">
         <v>464</v>
@@ -3525,7 +3523,7 @@
       <c r="D57" s="50"/>
       <c r="E57" s="50"/>
       <c r="F57" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G57" s="45">
         <v>12</v>
@@ -3555,7 +3553,7 @@
         <v>3</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C58" s="33">
         <v>464</v>
@@ -3563,7 +3561,7 @@
       <c r="D58" s="50"/>
       <c r="E58" s="50"/>
       <c r="F58" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G58" s="45">
         <v>12</v>
@@ -3593,7 +3591,7 @@
         <v>3</v>
       </c>
       <c r="B59" s="42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C59" s="33">
         <v>464</v>
@@ -3601,7 +3599,7 @@
       <c r="D59" s="50"/>
       <c r="E59" s="50"/>
       <c r="F59" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G59" s="45">
         <v>12</v>
@@ -3631,7 +3629,7 @@
         <v>3</v>
       </c>
       <c r="B60" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C60" s="33">
         <v>464</v>
@@ -3639,7 +3637,7 @@
       <c r="D60" s="50"/>
       <c r="E60" s="50"/>
       <c r="F60" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G60" s="45">
         <v>12</v>
@@ -3669,7 +3667,7 @@
         <v>3</v>
       </c>
       <c r="B61" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="33">
         <v>464</v>
@@ -3677,7 +3675,7 @@
       <c r="D61" s="50"/>
       <c r="E61" s="50"/>
       <c r="F61" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G61" s="45">
         <v>12</v>
@@ -3707,7 +3705,7 @@
         <v>3</v>
       </c>
       <c r="B62" s="42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C62" s="33">
         <v>464</v>
@@ -3715,7 +3713,7 @@
       <c r="D62" s="50"/>
       <c r="E62" s="50"/>
       <c r="F62" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G62" s="45">
         <v>12</v>
@@ -3745,7 +3743,7 @@
         <v>3</v>
       </c>
       <c r="B63" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C63" s="33">
         <v>464</v>
@@ -3753,7 +3751,7 @@
       <c r="D63" s="50"/>
       <c r="E63" s="50"/>
       <c r="F63" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G63" s="45">
         <v>12</v>
@@ -3783,7 +3781,7 @@
         <v>3</v>
       </c>
       <c r="B64" s="42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C64" s="33">
         <v>464</v>
@@ -3791,7 +3789,7 @@
       <c r="D64" s="50"/>
       <c r="E64" s="50"/>
       <c r="F64" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G64" s="45">
         <v>12</v>
@@ -3821,7 +3819,7 @@
         <v>3</v>
       </c>
       <c r="B65" s="42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C65" s="33">
         <v>464</v>
@@ -3829,7 +3827,7 @@
       <c r="D65" s="50"/>
       <c r="E65" s="50"/>
       <c r="F65" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G65" s="45">
         <v>12</v>
@@ -3859,7 +3857,7 @@
         <v>3</v>
       </c>
       <c r="B66" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C66" s="33">
         <v>464</v>
@@ -3867,7 +3865,7 @@
       <c r="D66" s="50"/>
       <c r="E66" s="50"/>
       <c r="F66" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G66" s="45">
         <v>12</v>
@@ -3897,7 +3895,7 @@
         <v>3</v>
       </c>
       <c r="B67" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C67" s="33">
         <v>464</v>
@@ -3905,7 +3903,7 @@
       <c r="D67" s="50"/>
       <c r="E67" s="50"/>
       <c r="F67" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G67" s="45">
         <v>12</v>
@@ -3935,7 +3933,7 @@
         <v>3</v>
       </c>
       <c r="B68" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C68" s="33">
         <v>464</v>
@@ -3943,7 +3941,7 @@
       <c r="D68" s="50"/>
       <c r="E68" s="50"/>
       <c r="F68" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G68" s="45">
         <v>12</v>
@@ -3973,7 +3971,7 @@
         <v>3</v>
       </c>
       <c r="B69" s="42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C69" s="33">
         <v>464</v>
@@ -3981,7 +3979,7 @@
       <c r="D69" s="50"/>
       <c r="E69" s="50"/>
       <c r="F69" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G69" s="45">
         <v>12</v>
@@ -4011,7 +4009,7 @@
         <v>3</v>
       </c>
       <c r="B70" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C70" s="33">
         <v>464</v>
@@ -4019,7 +4017,7 @@
       <c r="D70" s="50"/>
       <c r="E70" s="50"/>
       <c r="F70" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G70" s="45">
         <v>12</v>
@@ -4049,7 +4047,7 @@
         <v>3</v>
       </c>
       <c r="B71" s="42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C71" s="33">
         <v>464</v>
@@ -4057,7 +4055,7 @@
       <c r="D71" s="50"/>
       <c r="E71" s="50"/>
       <c r="F71" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G71" s="45">
         <v>12</v>
@@ -4087,7 +4085,7 @@
         <v>3</v>
       </c>
       <c r="B72" s="42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C72" s="33">
         <v>464</v>
@@ -4095,7 +4093,7 @@
       <c r="D72" s="50"/>
       <c r="E72" s="50"/>
       <c r="F72" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G72" s="45">
         <v>12</v>
@@ -4125,7 +4123,7 @@
         <v>3</v>
       </c>
       <c r="B73" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C73" s="33">
         <v>464</v>
@@ -4133,7 +4131,7 @@
       <c r="D73" s="50"/>
       <c r="E73" s="50"/>
       <c r="F73" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G73" s="45">
         <v>12</v>
@@ -4163,7 +4161,7 @@
         <v>3</v>
       </c>
       <c r="B74" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C74" s="33">
         <v>464</v>
@@ -4171,7 +4169,7 @@
       <c r="D74" s="50"/>
       <c r="E74" s="50"/>
       <c r="F74" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G74" s="45">
         <v>12</v>
@@ -4201,7 +4199,7 @@
         <v>3</v>
       </c>
       <c r="B75" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C75" s="33">
         <v>464</v>
@@ -4209,7 +4207,7 @@
       <c r="D75" s="50"/>
       <c r="E75" s="50"/>
       <c r="F75" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G75" s="45">
         <v>12</v>
@@ -4239,7 +4237,7 @@
         <v>3</v>
       </c>
       <c r="B76" s="42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C76" s="33">
         <v>464</v>
@@ -4247,7 +4245,7 @@
       <c r="D76" s="50"/>
       <c r="E76" s="50"/>
       <c r="F76" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G76" s="45">
         <v>12</v>
@@ -4277,7 +4275,7 @@
         <v>3</v>
       </c>
       <c r="B77" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C77" s="33">
         <v>464</v>
@@ -4285,7 +4283,7 @@
       <c r="D77" s="50"/>
       <c r="E77" s="50"/>
       <c r="F77" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G77" s="45">
         <v>12</v>
@@ -4315,7 +4313,7 @@
         <v>3</v>
       </c>
       <c r="B78" s="42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C78" s="33">
         <v>464</v>
@@ -4323,7 +4321,7 @@
       <c r="D78" s="50"/>
       <c r="E78" s="50"/>
       <c r="F78" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G78" s="45">
         <v>12</v>
@@ -4353,7 +4351,7 @@
         <v>3</v>
       </c>
       <c r="B79" s="42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C79" s="33">
         <v>464</v>
@@ -4361,7 +4359,7 @@
       <c r="D79" s="50"/>
       <c r="E79" s="50"/>
       <c r="F79" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G79" s="45">
         <v>12</v>
@@ -4391,7 +4389,7 @@
         <v>3</v>
       </c>
       <c r="B80" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C80" s="33">
         <v>464</v>
@@ -4399,7 +4397,7 @@
       <c r="D80" s="50"/>
       <c r="E80" s="50"/>
       <c r="F80" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G80" s="45">
         <v>12</v>
@@ -4429,7 +4427,7 @@
         <v>3</v>
       </c>
       <c r="B81" s="42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C81" s="33">
         <v>464</v>
@@ -4437,7 +4435,7 @@
       <c r="D81" s="50"/>
       <c r="E81" s="50"/>
       <c r="F81" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G81" s="45">
         <v>12</v>
@@ -4467,7 +4465,7 @@
         <v>3</v>
       </c>
       <c r="B82" s="43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C82" s="33">
         <v>465</v>
@@ -4475,7 +4473,7 @@
       <c r="D82" s="46"/>
       <c r="E82" s="46"/>
       <c r="F82" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G82" s="45">
         <v>12</v>
@@ -4505,7 +4503,7 @@
         <v>3</v>
       </c>
       <c r="B83" s="43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C83" s="33">
         <v>465</v>
@@ -4513,7 +4511,7 @@
       <c r="D83" s="46"/>
       <c r="E83" s="46"/>
       <c r="F83" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G83" s="45">
         <v>12</v>
@@ -4543,7 +4541,7 @@
         <v>3</v>
       </c>
       <c r="B84" s="43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C84" s="33">
         <v>465</v>
@@ -4551,7 +4549,7 @@
       <c r="D84" s="46"/>
       <c r="E84" s="46"/>
       <c r="F84" s="46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G84" s="45">
         <v>12</v>
@@ -4581,7 +4579,7 @@
         <v>3</v>
       </c>
       <c r="B85" s="43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C85" s="33">
         <v>465</v>
@@ -4589,7 +4587,7 @@
       <c r="D85" s="46"/>
       <c r="E85" s="46"/>
       <c r="F85" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G85" s="45">
         <v>12</v>
@@ -4619,7 +4617,7 @@
         <v>3</v>
       </c>
       <c r="B86" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C86" s="33">
         <v>465</v>
@@ -4627,7 +4625,7 @@
       <c r="D86" s="46"/>
       <c r="E86" s="46"/>
       <c r="F86" s="46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G86" s="45">
         <v>12</v>
@@ -4657,7 +4655,7 @@
         <v>3</v>
       </c>
       <c r="B87" s="43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C87" s="33">
         <v>465</v>
@@ -4665,7 +4663,7 @@
       <c r="D87" s="46"/>
       <c r="E87" s="46"/>
       <c r="F87" s="46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G87" s="45">
         <v>12</v>
@@ -4695,7 +4693,7 @@
         <v>3</v>
       </c>
       <c r="B88" s="43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C88" s="33">
         <v>465</v>
@@ -4703,7 +4701,7 @@
       <c r="D88" s="46"/>
       <c r="E88" s="46"/>
       <c r="F88" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G88" s="45">
         <v>12</v>
@@ -4733,7 +4731,7 @@
         <v>3</v>
       </c>
       <c r="B89" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C89" s="33">
         <v>465</v>
@@ -4741,7 +4739,7 @@
       <c r="D89" s="46"/>
       <c r="E89" s="46"/>
       <c r="F89" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G89" s="45">
         <v>12</v>
@@ -4771,7 +4769,7 @@
         <v>3</v>
       </c>
       <c r="B90" s="43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C90" s="33">
         <v>465</v>
@@ -4779,7 +4777,7 @@
       <c r="D90" s="46"/>
       <c r="E90" s="46"/>
       <c r="F90" s="46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G90" s="45">
         <v>12</v>
@@ -4809,7 +4807,7 @@
         <v>3</v>
       </c>
       <c r="B91" s="43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C91" s="33">
         <v>465</v>
@@ -4817,7 +4815,7 @@
       <c r="D91" s="46"/>
       <c r="E91" s="46"/>
       <c r="F91" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G91" s="45">
         <v>12</v>
@@ -4847,7 +4845,7 @@
         <v>3</v>
       </c>
       <c r="B92" s="43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C92" s="33">
         <v>465</v>
@@ -4855,7 +4853,7 @@
       <c r="D92" s="46"/>
       <c r="E92" s="46"/>
       <c r="F92" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G92" s="45">
         <v>12</v>
@@ -4885,7 +4883,7 @@
         <v>3</v>
       </c>
       <c r="B93" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C93" s="33">
         <v>465</v>
@@ -4893,7 +4891,7 @@
       <c r="D93" s="46"/>
       <c r="E93" s="46"/>
       <c r="F93" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G93" s="45">
         <v>12</v>
@@ -4923,7 +4921,7 @@
         <v>3</v>
       </c>
       <c r="B94" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C94" s="33">
         <v>465</v>
@@ -4931,7 +4929,7 @@
       <c r="D94" s="46"/>
       <c r="E94" s="46"/>
       <c r="F94" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G94" s="45">
         <v>12</v>
@@ -4961,7 +4959,7 @@
         <v>3</v>
       </c>
       <c r="B95" s="43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C95" s="33">
         <v>465</v>
@@ -4969,7 +4967,7 @@
       <c r="D95" s="46"/>
       <c r="E95" s="46"/>
       <c r="F95" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G95" s="45">
         <v>12</v>
@@ -4999,7 +4997,7 @@
         <v>3</v>
       </c>
       <c r="B96" s="43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C96" s="33">
         <v>465</v>
@@ -5007,7 +5005,7 @@
       <c r="D96" s="46"/>
       <c r="E96" s="46"/>
       <c r="F96" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G96" s="45">
         <v>12</v>
@@ -5037,7 +5035,7 @@
         <v>3</v>
       </c>
       <c r="B97" s="43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C97" s="33">
         <v>465</v>
@@ -5045,7 +5043,7 @@
       <c r="D97" s="46"/>
       <c r="E97" s="46"/>
       <c r="F97" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G97" s="45">
         <v>12</v>
@@ -5075,7 +5073,7 @@
         <v>3</v>
       </c>
       <c r="B98" s="43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C98" s="33">
         <v>465</v>
@@ -5083,7 +5081,7 @@
       <c r="D98" s="46"/>
       <c r="E98" s="46"/>
       <c r="F98" s="46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G98" s="45">
         <v>12</v>
@@ -5113,7 +5111,7 @@
         <v>3</v>
       </c>
       <c r="B99" s="43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C99" s="33">
         <v>465</v>
@@ -5121,7 +5119,7 @@
       <c r="D99" s="46"/>
       <c r="E99" s="46"/>
       <c r="F99" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G99" s="45">
         <v>12</v>
@@ -5151,7 +5149,7 @@
         <v>3</v>
       </c>
       <c r="B100" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C100" s="33">
         <v>465</v>
@@ -5159,7 +5157,7 @@
       <c r="D100" s="46"/>
       <c r="E100" s="46"/>
       <c r="F100" s="46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G100" s="45">
         <v>12</v>
@@ -5189,7 +5187,7 @@
         <v>3</v>
       </c>
       <c r="B101" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C101" s="33">
         <v>465</v>
@@ -5197,7 +5195,7 @@
       <c r="D101" s="46"/>
       <c r="E101" s="46"/>
       <c r="F101" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G101" s="45">
         <v>12</v>
@@ -5227,7 +5225,7 @@
         <v>3</v>
       </c>
       <c r="B102" s="43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C102" s="33">
         <v>465</v>
@@ -5235,7 +5233,7 @@
       <c r="D102" s="46"/>
       <c r="E102" s="46"/>
       <c r="F102" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G102" s="45">
         <v>12</v>
@@ -5265,7 +5263,7 @@
         <v>3</v>
       </c>
       <c r="B103" s="43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C103" s="33">
         <v>465</v>
@@ -5273,7 +5271,7 @@
       <c r="D103" s="46"/>
       <c r="E103" s="46"/>
       <c r="F103" s="46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G103" s="45">
         <v>12</v>
@@ -5303,7 +5301,7 @@
         <v>3</v>
       </c>
       <c r="B104" s="43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C104" s="33">
         <v>465</v>
@@ -5311,7 +5309,7 @@
       <c r="D104" s="46"/>
       <c r="E104" s="46"/>
       <c r="F104" s="46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G104" s="45">
         <v>12</v>
@@ -5341,7 +5339,7 @@
         <v>3</v>
       </c>
       <c r="B105" s="43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C105" s="33">
         <v>465</v>
@@ -5349,7 +5347,7 @@
       <c r="D105" s="46"/>
       <c r="E105" s="46"/>
       <c r="F105" s="46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G105" s="45">
         <v>12</v>
@@ -5379,7 +5377,7 @@
         <v>3</v>
       </c>
       <c r="B106" s="43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C106" s="33">
         <v>465</v>
@@ -5387,7 +5385,7 @@
       <c r="D106" s="46"/>
       <c r="E106" s="46"/>
       <c r="F106" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G106" s="45">
         <v>12</v>
@@ -5417,7 +5415,7 @@
         <v>3</v>
       </c>
       <c r="B107" s="43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C107" s="33">
         <v>465</v>
@@ -5425,7 +5423,7 @@
       <c r="D107" s="46"/>
       <c r="E107" s="46"/>
       <c r="F107" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G107" s="45">
         <v>12</v>
@@ -5455,7 +5453,7 @@
         <v>3</v>
       </c>
       <c r="B108" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C108" s="33">
         <v>465</v>
@@ -5463,7 +5461,7 @@
       <c r="D108" s="46"/>
       <c r="E108" s="46"/>
       <c r="F108" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G108" s="45">
         <v>12</v>
@@ -5493,7 +5491,7 @@
         <v>3</v>
       </c>
       <c r="B109" s="43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C109" s="33">
         <v>465</v>
@@ -5501,7 +5499,7 @@
       <c r="D109" s="46"/>
       <c r="E109" s="46"/>
       <c r="F109" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G109" s="45">
         <v>12</v>
@@ -5531,7 +5529,7 @@
         <v>3</v>
       </c>
       <c r="B110" s="43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C110" s="33">
         <v>465</v>
@@ -5539,7 +5537,7 @@
       <c r="D110" s="46"/>
       <c r="E110" s="46"/>
       <c r="F110" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G110" s="45">
         <v>12</v>
@@ -5569,7 +5567,7 @@
         <v>3</v>
       </c>
       <c r="B111" s="43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C111" s="33">
         <v>465</v>
@@ -5577,7 +5575,7 @@
       <c r="D111" s="46"/>
       <c r="E111" s="46"/>
       <c r="F111" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G111" s="45">
         <v>12</v>
@@ -5607,7 +5605,7 @@
         <v>3</v>
       </c>
       <c r="B112" s="43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C112" s="33">
         <v>465</v>
@@ -5615,7 +5613,7 @@
       <c r="D112" s="46"/>
       <c r="E112" s="46"/>
       <c r="F112" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G112" s="45">
         <v>12</v>
@@ -5645,7 +5643,7 @@
         <v>3</v>
       </c>
       <c r="B113" s="43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C113" s="33">
         <v>465</v>
@@ -5653,7 +5651,7 @@
       <c r="D113" s="46"/>
       <c r="E113" s="46"/>
       <c r="F113" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G113" s="45">
         <v>12</v>
@@ -5683,7 +5681,7 @@
         <v>3</v>
       </c>
       <c r="B114" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C114" s="33">
         <v>465</v>
@@ -5691,7 +5689,7 @@
       <c r="D114" s="46"/>
       <c r="E114" s="46"/>
       <c r="F114" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G114" s="45">
         <v>12</v>
@@ -5721,7 +5719,7 @@
         <v>3</v>
       </c>
       <c r="B115" s="43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C115" s="33">
         <v>465</v>
@@ -5729,7 +5727,7 @@
       <c r="D115" s="46"/>
       <c r="E115" s="46"/>
       <c r="F115" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G115" s="45">
         <v>12</v>
@@ -5759,7 +5757,7 @@
         <v>3</v>
       </c>
       <c r="B116" s="43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C116" s="33">
         <v>465</v>
@@ -5767,7 +5765,7 @@
       <c r="D116" s="46"/>
       <c r="E116" s="46"/>
       <c r="F116" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G116" s="45">
         <v>12</v>
@@ -5797,7 +5795,7 @@
         <v>3</v>
       </c>
       <c r="B117" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C117" s="33">
         <v>465</v>
@@ -5805,7 +5803,7 @@
       <c r="D117" s="46"/>
       <c r="E117" s="46"/>
       <c r="F117" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G117" s="45">
         <v>12</v>
@@ -5835,7 +5833,7 @@
         <v>3</v>
       </c>
       <c r="B118" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C118" s="33">
         <v>465</v>
@@ -5843,7 +5841,7 @@
       <c r="D118" s="46"/>
       <c r="E118" s="46"/>
       <c r="F118" s="46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G118" s="45">
         <v>12</v>
@@ -5873,7 +5871,7 @@
         <v>3</v>
       </c>
       <c r="B119" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C119" s="33">
         <v>465</v>
@@ -5881,7 +5879,7 @@
       <c r="D119" s="46"/>
       <c r="E119" s="46"/>
       <c r="F119" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G119" s="45">
         <v>12</v>
@@ -5911,7 +5909,7 @@
         <v>3</v>
       </c>
       <c r="B120" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C120" s="33">
         <v>465</v>
@@ -5919,7 +5917,7 @@
       <c r="D120" s="46"/>
       <c r="E120" s="46"/>
       <c r="F120" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G120" s="45">
         <v>12</v>
@@ -5949,7 +5947,7 @@
         <v>3</v>
       </c>
       <c r="B121" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C121" s="33">
         <v>465</v>
@@ -5957,7 +5955,7 @@
       <c r="D121" s="46"/>
       <c r="E121" s="46"/>
       <c r="F121" s="46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G121" s="45">
         <v>12</v>
@@ -5987,7 +5985,7 @@
         <v>3</v>
       </c>
       <c r="B122" s="43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C122" s="33">
         <v>465</v>
@@ -5995,7 +5993,7 @@
       <c r="D122" s="46"/>
       <c r="E122" s="46"/>
       <c r="F122" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G122" s="45">
         <v>12</v>
@@ -6025,7 +6023,7 @@
         <v>3</v>
       </c>
       <c r="B123" s="43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C123" s="33">
         <v>465</v>
@@ -6033,7 +6031,7 @@
       <c r="D123" s="46"/>
       <c r="E123" s="46"/>
       <c r="F123" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G123" s="45">
         <v>12</v>
@@ -6063,7 +6061,7 @@
         <v>3</v>
       </c>
       <c r="B124" s="43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C124" s="33">
         <v>465</v>
@@ -6071,7 +6069,7 @@
       <c r="D124" s="46"/>
       <c r="E124" s="46"/>
       <c r="F124" s="46" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G124" s="45">
         <v>12</v>
@@ -6101,7 +6099,7 @@
         <v>3</v>
       </c>
       <c r="B125" s="43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C125" s="33">
         <v>465</v>
@@ -6109,7 +6107,7 @@
       <c r="D125" s="46"/>
       <c r="E125" s="46"/>
       <c r="F125" s="46" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G125" s="45">
         <v>12</v>
@@ -6139,7 +6137,7 @@
         <v>3</v>
       </c>
       <c r="B126" s="43" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C126" s="33">
         <v>465</v>
@@ -6147,7 +6145,7 @@
       <c r="D126" s="46"/>
       <c r="E126" s="46"/>
       <c r="F126" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G126" s="45">
         <v>12</v>
@@ -6177,7 +6175,7 @@
         <v>3</v>
       </c>
       <c r="B127" s="43" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C127" s="33">
         <v>465</v>
@@ -6185,7 +6183,7 @@
       <c r="D127" s="46"/>
       <c r="E127" s="46"/>
       <c r="F127" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G127" s="45">
         <v>12</v>
@@ -6215,7 +6213,7 @@
         <v>3</v>
       </c>
       <c r="B128" s="43" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C128" s="33">
         <v>465</v>
@@ -6223,7 +6221,7 @@
       <c r="D128" s="46"/>
       <c r="E128" s="46"/>
       <c r="F128" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G128" s="45">
         <v>12</v>
@@ -6253,7 +6251,7 @@
         <v>3</v>
       </c>
       <c r="B129" s="43" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C129" s="33">
         <v>465</v>
@@ -6261,7 +6259,7 @@
       <c r="D129" s="46"/>
       <c r="E129" s="46"/>
       <c r="F129" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G129" s="45">
         <v>12</v>
@@ -6291,7 +6289,7 @@
         <v>3</v>
       </c>
       <c r="B130" s="43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C130" s="33">
         <v>465</v>
@@ -6299,7 +6297,7 @@
       <c r="D130" s="46"/>
       <c r="E130" s="46"/>
       <c r="F130" s="46" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G130" s="45">
         <v>12</v>
@@ -6329,7 +6327,7 @@
         <v>3</v>
       </c>
       <c r="B131" s="43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C131" s="33">
         <v>465</v>
@@ -6337,7 +6335,7 @@
       <c r="D131" s="46"/>
       <c r="E131" s="46"/>
       <c r="F131" s="46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G131" s="45">
         <v>12</v>
@@ -6367,7 +6365,7 @@
         <v>3</v>
       </c>
       <c r="B132" s="43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C132" s="33">
         <v>465</v>
@@ -6375,7 +6373,7 @@
       <c r="D132" s="46"/>
       <c r="E132" s="46"/>
       <c r="F132" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G132" s="45">
         <v>12</v>
@@ -6405,7 +6403,7 @@
         <v>3</v>
       </c>
       <c r="B133" s="43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C133" s="33">
         <v>465</v>
@@ -6413,7 +6411,7 @@
       <c r="D133" s="46"/>
       <c r="E133" s="46"/>
       <c r="F133" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G133" s="45">
         <v>12</v>
@@ -6443,7 +6441,7 @@
         <v>3</v>
       </c>
       <c r="B134" s="43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C134" s="33">
         <v>465</v>
@@ -6451,7 +6449,7 @@
       <c r="D134" s="46"/>
       <c r="E134" s="46"/>
       <c r="F134" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G134" s="45">
         <v>12</v>
@@ -6481,7 +6479,7 @@
         <v>3</v>
       </c>
       <c r="B135" s="43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C135" s="33">
         <v>465</v>
@@ -6489,7 +6487,7 @@
       <c r="D135" s="46"/>
       <c r="E135" s="46"/>
       <c r="F135" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G135" s="45">
         <v>12</v>
@@ -6519,7 +6517,7 @@
         <v>3</v>
       </c>
       <c r="B136" s="43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C136" s="33">
         <v>465</v>
@@ -6527,7 +6525,7 @@
       <c r="D136" s="46"/>
       <c r="E136" s="46"/>
       <c r="F136" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G136" s="45">
         <v>12</v>
@@ -6557,7 +6555,7 @@
         <v>3</v>
       </c>
       <c r="B137" s="43" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C137" s="33">
         <v>465</v>
@@ -6565,7 +6563,7 @@
       <c r="D137" s="46"/>
       <c r="E137" s="46"/>
       <c r="F137" s="46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G137" s="45">
         <v>12</v>
@@ -6595,7 +6593,7 @@
         <v>3</v>
       </c>
       <c r="B138" s="43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C138" s="33">
         <v>465</v>
@@ -6603,7 +6601,7 @@
       <c r="D138" s="46"/>
       <c r="E138" s="46"/>
       <c r="F138" s="46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G138" s="45">
         <v>12</v>
@@ -6633,7 +6631,7 @@
         <v>3</v>
       </c>
       <c r="B139" s="43" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C139" s="33">
         <v>465</v>
@@ -6641,7 +6639,7 @@
       <c r="D139" s="46"/>
       <c r="E139" s="46"/>
       <c r="F139" s="46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G139" s="45">
         <v>12</v>
@@ -6671,7 +6669,7 @@
         <v>3</v>
       </c>
       <c r="B140" s="43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C140" s="33">
         <v>465</v>
@@ -6679,7 +6677,7 @@
       <c r="D140" s="46"/>
       <c r="E140" s="46"/>
       <c r="F140" s="46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G140" s="45">
         <v>12</v>
@@ -6709,7 +6707,7 @@
         <v>3</v>
       </c>
       <c r="B141" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C141" s="33">
         <v>465</v>
@@ -6717,7 +6715,7 @@
       <c r="D141" s="46"/>
       <c r="E141" s="46"/>
       <c r="F141" s="46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G141" s="45">
         <v>12</v>
@@ -6747,7 +6745,7 @@
         <v>3</v>
       </c>
       <c r="B142" s="43" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C142" s="33">
         <v>465</v>
@@ -6755,7 +6753,7 @@
       <c r="D142" s="46"/>
       <c r="E142" s="46"/>
       <c r="F142" s="46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G142" s="45">
         <v>12</v>
@@ -6785,7 +6783,7 @@
         <v>3</v>
       </c>
       <c r="B143" s="43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C143" s="33">
         <v>465</v>
@@ -6793,7 +6791,7 @@
       <c r="D143" s="46"/>
       <c r="E143" s="46"/>
       <c r="F143" s="46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G143" s="45">
         <v>12</v>
@@ -6823,7 +6821,7 @@
         <v>3</v>
       </c>
       <c r="B144" s="43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C144" s="33">
         <v>465</v>
@@ -6831,7 +6829,7 @@
       <c r="D144" s="46"/>
       <c r="E144" s="46"/>
       <c r="F144" s="46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G144" s="45">
         <v>12</v>
@@ -6861,7 +6859,7 @@
         <v>3</v>
       </c>
       <c r="B145" s="43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C145" s="33">
         <v>465</v>
@@ -6869,7 +6867,7 @@
       <c r="D145" s="46"/>
       <c r="E145" s="46"/>
       <c r="F145" s="46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G145" s="45">
         <v>12</v>
@@ -6899,7 +6897,7 @@
         <v>3</v>
       </c>
       <c r="B146" s="43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C146" s="33">
         <v>465</v>
@@ -6907,7 +6905,7 @@
       <c r="D146" s="46"/>
       <c r="E146" s="46"/>
       <c r="F146" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G146" s="45">
         <v>12</v>
@@ -6937,7 +6935,7 @@
         <v>3</v>
       </c>
       <c r="B147" s="43" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C147" s="33">
         <v>465</v>
@@ -6945,7 +6943,7 @@
       <c r="D147" s="46"/>
       <c r="E147" s="46"/>
       <c r="F147" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G147" s="45">
         <v>12</v>
@@ -6975,7 +6973,7 @@
         <v>3</v>
       </c>
       <c r="B148" s="43" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C148" s="33">
         <v>465</v>
@@ -6983,7 +6981,7 @@
       <c r="D148" s="46"/>
       <c r="E148" s="46"/>
       <c r="F148" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G148" s="45">
         <v>12</v>
@@ -7013,7 +7011,7 @@
         <v>3</v>
       </c>
       <c r="B149" s="43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C149" s="33">
         <v>465</v>
@@ -7021,7 +7019,7 @@
       <c r="D149" s="46"/>
       <c r="E149" s="46"/>
       <c r="F149" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G149" s="45">
         <v>12</v>
@@ -7051,7 +7049,7 @@
         <v>3</v>
       </c>
       <c r="B150" s="43" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C150" s="33">
         <v>465</v>
@@ -7059,7 +7057,7 @@
       <c r="D150" s="46"/>
       <c r="E150" s="46"/>
       <c r="F150" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G150" s="45">
         <v>12</v>
@@ -7089,7 +7087,7 @@
         <v>3</v>
       </c>
       <c r="B151" s="43" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C151" s="33">
         <v>465</v>
@@ -7097,7 +7095,7 @@
       <c r="D151" s="46"/>
       <c r="E151" s="46"/>
       <c r="F151" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G151" s="45">
         <v>12</v>
@@ -7127,7 +7125,7 @@
         <v>3</v>
       </c>
       <c r="B152" s="43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C152" s="33">
         <v>465</v>
@@ -7135,7 +7133,7 @@
       <c r="D152" s="46"/>
       <c r="E152" s="46"/>
       <c r="F152" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G152" s="45">
         <v>12</v>
@@ -7165,7 +7163,7 @@
         <v>3</v>
       </c>
       <c r="B153" s="43" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C153" s="33">
         <v>465</v>
@@ -7173,7 +7171,7 @@
       <c r="D153" s="46"/>
       <c r="E153" s="46"/>
       <c r="F153" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G153" s="45">
         <v>12</v>
@@ -7203,7 +7201,7 @@
         <v>3</v>
       </c>
       <c r="B154" s="43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C154" s="33">
         <v>465</v>
@@ -7211,7 +7209,7 @@
       <c r="D154" s="46"/>
       <c r="E154" s="46"/>
       <c r="F154" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G154" s="45">
         <v>12</v>
@@ -7241,7 +7239,7 @@
         <v>3</v>
       </c>
       <c r="B155" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C155" s="33">
         <v>465</v>
@@ -7249,7 +7247,7 @@
       <c r="D155" s="46"/>
       <c r="E155" s="46"/>
       <c r="F155" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G155" s="45">
         <v>12</v>
@@ -7279,7 +7277,7 @@
         <v>3</v>
       </c>
       <c r="B156" s="43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C156" s="33">
         <v>465</v>
@@ -7287,7 +7285,7 @@
       <c r="D156" s="46"/>
       <c r="E156" s="46"/>
       <c r="F156" s="46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G156" s="45">
         <v>12</v>
@@ -7317,7 +7315,7 @@
         <v>3</v>
       </c>
       <c r="B157" s="43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C157" s="33">
         <v>465</v>
@@ -7325,7 +7323,7 @@
       <c r="D157" s="46"/>
       <c r="E157" s="46"/>
       <c r="F157" s="46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G157" s="45">
         <v>12</v>
@@ -7355,7 +7353,7 @@
         <v>3</v>
       </c>
       <c r="B158" s="43" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C158" s="33">
         <v>465</v>
@@ -7363,7 +7361,7 @@
       <c r="D158" s="46"/>
       <c r="E158" s="46"/>
       <c r="F158" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G158" s="45">
         <v>12</v>
@@ -7393,7 +7391,7 @@
         <v>3</v>
       </c>
       <c r="B159" s="43" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C159" s="33">
         <v>465</v>
@@ -7401,7 +7399,7 @@
       <c r="D159" s="46"/>
       <c r="E159" s="46"/>
       <c r="F159" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G159" s="45">
         <v>12</v>
@@ -7431,7 +7429,7 @@
         <v>3</v>
       </c>
       <c r="B160" s="43" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C160" s="33">
         <v>465</v>
@@ -7439,7 +7437,7 @@
       <c r="D160" s="46"/>
       <c r="E160" s="46"/>
       <c r="F160" s="46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G160" s="45">
         <v>12</v>
@@ -7469,7 +7467,7 @@
         <v>3</v>
       </c>
       <c r="B161" s="43" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C161" s="33">
         <v>465</v>
@@ -7477,7 +7475,7 @@
       <c r="D161" s="46"/>
       <c r="E161" s="46"/>
       <c r="F161" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G161" s="45">
         <v>12</v>
@@ -7507,7 +7505,7 @@
         <v>3</v>
       </c>
       <c r="B162" s="43" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C162" s="33">
         <v>465</v>
@@ -7515,7 +7513,7 @@
       <c r="D162" s="46"/>
       <c r="E162" s="46"/>
       <c r="F162" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G162" s="45">
         <v>12</v>
@@ -7545,7 +7543,7 @@
         <v>3</v>
       </c>
       <c r="B163" s="43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C163" s="33">
         <v>465</v>
@@ -7553,7 +7551,7 @@
       <c r="D163" s="46"/>
       <c r="E163" s="46"/>
       <c r="F163" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G163" s="45">
         <v>12</v>
@@ -7583,7 +7581,7 @@
         <v>3</v>
       </c>
       <c r="B164" s="43" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C164" s="33">
         <v>465</v>
@@ -7591,7 +7589,7 @@
       <c r="D164" s="46"/>
       <c r="E164" s="46"/>
       <c r="F164" s="46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G164" s="45">
         <v>12</v>
@@ -7621,7 +7619,7 @@
         <v>3</v>
       </c>
       <c r="B165" s="43" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C165" s="33">
         <v>465</v>
@@ -7629,7 +7627,7 @@
       <c r="D165" s="46"/>
       <c r="E165" s="46"/>
       <c r="F165" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G165" s="45">
         <v>12</v>
@@ -7659,7 +7657,7 @@
         <v>3</v>
       </c>
       <c r="B166" s="43" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C166" s="33">
         <v>465</v>
@@ -7667,7 +7665,7 @@
       <c r="D166" s="46"/>
       <c r="E166" s="46"/>
       <c r="F166" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G166" s="45">
         <v>12</v>
@@ -7697,7 +7695,7 @@
         <v>3</v>
       </c>
       <c r="B167" s="43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C167" s="33">
         <v>465</v>
@@ -7705,7 +7703,7 @@
       <c r="D167" s="46"/>
       <c r="E167" s="46"/>
       <c r="F167" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G167" s="45">
         <v>12</v>
@@ -7735,7 +7733,7 @@
         <v>3</v>
       </c>
       <c r="B168" s="43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C168" s="33">
         <v>465</v>
@@ -7743,7 +7741,7 @@
       <c r="D168" s="46"/>
       <c r="E168" s="46"/>
       <c r="F168" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G168" s="45">
         <v>12</v>
@@ -7773,7 +7771,7 @@
         <v>3</v>
       </c>
       <c r="B169" s="43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C169" s="33">
         <v>465</v>
@@ -7781,7 +7779,7 @@
       <c r="D169" s="46"/>
       <c r="E169" s="46"/>
       <c r="F169" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G169" s="45">
         <v>12</v>
@@ -7811,7 +7809,7 @@
         <v>3</v>
       </c>
       <c r="B170" s="43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C170" s="33">
         <v>465</v>
@@ -7819,7 +7817,7 @@
       <c r="D170" s="46"/>
       <c r="E170" s="46"/>
       <c r="F170" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G170" s="45">
         <v>12</v>
@@ -7849,7 +7847,7 @@
         <v>3</v>
       </c>
       <c r="B171" s="43" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C171" s="33">
         <v>465</v>
@@ -7857,7 +7855,7 @@
       <c r="D171" s="46"/>
       <c r="E171" s="46"/>
       <c r="F171" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G171" s="45">
         <v>12</v>
@@ -7887,7 +7885,7 @@
         <v>3</v>
       </c>
       <c r="B172" s="43" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C172" s="33">
         <v>465</v>
@@ -7895,7 +7893,7 @@
       <c r="D172" s="46"/>
       <c r="E172" s="46"/>
       <c r="F172" s="46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G172" s="45">
         <v>12</v>
@@ -7925,7 +7923,7 @@
         <v>3</v>
       </c>
       <c r="B173" s="43" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C173" s="33">
         <v>465</v>
@@ -7933,7 +7931,7 @@
       <c r="D173" s="46"/>
       <c r="E173" s="46"/>
       <c r="F173" s="46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G173" s="45">
         <v>12</v>
@@ -7963,7 +7961,7 @@
         <v>3</v>
       </c>
       <c r="B174" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C174" s="33">
         <v>465</v>
@@ -7971,7 +7969,7 @@
       <c r="D174" s="46"/>
       <c r="E174" s="46"/>
       <c r="F174" s="46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G174" s="45">
         <v>12</v>
@@ -7989,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="L174" s="48" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M174" s="51">
         <v>45657</v>
@@ -8001,7 +7999,7 @@
         <v>3</v>
       </c>
       <c r="B175" s="43" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C175" s="33">
         <v>465</v>
@@ -8009,7 +8007,7 @@
       <c r="D175" s="46"/>
       <c r="E175" s="46"/>
       <c r="F175" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G175" s="45">
         <v>12</v>
@@ -8027,7 +8025,7 @@
         <v>0</v>
       </c>
       <c r="L175" s="48" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M175" s="51">
         <v>45657</v>
@@ -8039,7 +8037,7 @@
         <v>3</v>
       </c>
       <c r="B176" s="43" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C176" s="33">
         <v>465</v>
@@ -8047,7 +8045,7 @@
       <c r="D176" s="46"/>
       <c r="E176" s="46"/>
       <c r="F176" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G176" s="45">
         <v>12</v>
@@ -8065,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="L176" s="48" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M176" s="51">
         <v>45657</v>
@@ -8077,7 +8075,7 @@
         <v>3</v>
       </c>
       <c r="B177" s="43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C177" s="33">
         <v>465</v>
@@ -8085,7 +8083,7 @@
       <c r="D177" s="46"/>
       <c r="E177" s="46"/>
       <c r="F177" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G177" s="45">
         <v>12</v>
@@ -8103,7 +8101,7 @@
         <v>0</v>
       </c>
       <c r="L177" s="48" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M177" s="51">
         <v>45657</v>
@@ -8115,7 +8113,7 @@
         <v>3</v>
       </c>
       <c r="B178" s="43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C178" s="33">
         <v>465</v>
@@ -8123,7 +8121,7 @@
       <c r="D178" s="46"/>
       <c r="E178" s="46"/>
       <c r="F178" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G178" s="45">
         <v>12</v>
@@ -8141,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="L178" s="48" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M178" s="51">
         <v>45657</v>
@@ -8153,7 +8151,7 @@
         <v>3</v>
       </c>
       <c r="B179" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C179" s="33">
         <v>465</v>
@@ -8161,7 +8159,7 @@
       <c r="D179" s="46"/>
       <c r="E179" s="46"/>
       <c r="F179" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G179" s="45">
         <v>12</v>
@@ -8179,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="L179" s="48" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M179" s="51">
         <v>45657</v>
@@ -8191,7 +8189,7 @@
         <v>3</v>
       </c>
       <c r="B180" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C180" s="33">
         <v>465</v>
@@ -8199,7 +8197,7 @@
       <c r="D180" s="46"/>
       <c r="E180" s="46"/>
       <c r="F180" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G180" s="45">
         <v>12</v>
@@ -8217,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="L180" s="48" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M180" s="51">
         <v>45657</v>
@@ -8229,7 +8227,7 @@
         <v>3</v>
       </c>
       <c r="B181" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C181" s="33">
         <v>465</v>
@@ -8237,7 +8235,7 @@
       <c r="D181" s="46"/>
       <c r="E181" s="46"/>
       <c r="F181" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G181" s="45">
         <v>12</v>
@@ -8255,7 +8253,7 @@
         <v>0</v>
       </c>
       <c r="L181" s="48" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M181" s="51">
         <v>45657</v>
@@ -8267,7 +8265,7 @@
         <v>3</v>
       </c>
       <c r="B182" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C182" s="33">
         <v>465</v>
@@ -8275,7 +8273,7 @@
       <c r="D182" s="46"/>
       <c r="E182" s="46"/>
       <c r="F182" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G182" s="45">
         <v>12</v>
@@ -8293,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="L182" s="48" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M182" s="51">
         <v>45657</v>
@@ -8305,7 +8303,7 @@
         <v>3</v>
       </c>
       <c r="B183" s="43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C183" s="33">
         <v>465</v>
@@ -8313,7 +8311,7 @@
       <c r="D183" s="46"/>
       <c r="E183" s="46"/>
       <c r="F183" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G183" s="45">
         <v>12</v>
@@ -8331,7 +8329,7 @@
         <v>0</v>
       </c>
       <c r="L183" s="48" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M183" s="51">
         <v>45657</v>
@@ -8343,7 +8341,7 @@
         <v>3</v>
       </c>
       <c r="B184" s="43" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C184" s="33">
         <v>465</v>
@@ -8351,7 +8349,7 @@
       <c r="D184" s="46"/>
       <c r="E184" s="46"/>
       <c r="F184" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G184" s="45">
         <v>12</v>
@@ -8369,7 +8367,7 @@
         <v>0</v>
       </c>
       <c r="L184" s="48" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M184" s="51">
         <v>45657</v>
@@ -8381,7 +8379,7 @@
         <v>3</v>
       </c>
       <c r="B185" s="43" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C185" s="33">
         <v>465</v>
@@ -8389,7 +8387,7 @@
       <c r="D185" s="46"/>
       <c r="E185" s="46"/>
       <c r="F185" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G185" s="45">
         <v>12</v>
@@ -8419,7 +8417,7 @@
         <v>3</v>
       </c>
       <c r="B186" s="43" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C186" s="33">
         <v>465</v>
@@ -8427,7 +8425,7 @@
       <c r="D186" s="46"/>
       <c r="E186" s="46"/>
       <c r="F186" s="46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G186" s="45">
         <v>12</v>
@@ -8457,7 +8455,7 @@
         <v>3</v>
       </c>
       <c r="B187" s="43" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C187" s="33">
         <v>465</v>
@@ -8465,7 +8463,7 @@
       <c r="D187" s="46"/>
       <c r="E187" s="46"/>
       <c r="F187" s="46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G187" s="45">
         <v>12</v>
@@ -8495,7 +8493,7 @@
         <v>3</v>
       </c>
       <c r="B188" s="43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C188" s="33">
         <v>465</v>
@@ -8503,7 +8501,7 @@
       <c r="D188" s="46"/>
       <c r="E188" s="46"/>
       <c r="F188" s="46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G188" s="45">
         <v>12</v>
@@ -8533,7 +8531,7 @@
         <v>3</v>
       </c>
       <c r="B189" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C189" s="33">
         <v>465</v>
@@ -8541,7 +8539,7 @@
       <c r="D189" s="46"/>
       <c r="E189" s="46"/>
       <c r="F189" s="46" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G189" s="45">
         <v>12</v>
@@ -8571,7 +8569,7 @@
         <v>3</v>
       </c>
       <c r="B190" s="43" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C190" s="33">
         <v>465</v>
@@ -8579,7 +8577,7 @@
       <c r="D190" s="46"/>
       <c r="E190" s="46"/>
       <c r="F190" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G190" s="45">
         <v>12</v>
@@ -8609,7 +8607,7 @@
         <v>3</v>
       </c>
       <c r="B191" s="43" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C191" s="33">
         <v>465</v>
@@ -8617,7 +8615,7 @@
       <c r="D191" s="46"/>
       <c r="E191" s="46"/>
       <c r="F191" s="46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G191" s="45">
         <v>12</v>
@@ -8647,7 +8645,7 @@
         <v>3</v>
       </c>
       <c r="B192" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C192" s="33">
         <v>465</v>
@@ -8655,7 +8653,7 @@
       <c r="D192" s="46"/>
       <c r="E192" s="46"/>
       <c r="F192" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G192" s="45">
         <v>12</v>
@@ -8685,7 +8683,7 @@
         <v>3</v>
       </c>
       <c r="B193" s="43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C193" s="33">
         <v>465</v>
@@ -8693,7 +8691,7 @@
       <c r="D193" s="46"/>
       <c r="E193" s="46"/>
       <c r="F193" s="46" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G193" s="45">
         <v>12</v>
@@ -8723,7 +8721,7 @@
         <v>3</v>
       </c>
       <c r="B194" s="43" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C194" s="33">
         <v>465</v>
@@ -8731,7 +8729,7 @@
       <c r="D194" s="46"/>
       <c r="E194" s="46"/>
       <c r="F194" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G194" s="45">
         <v>12</v>
@@ -8761,7 +8759,7 @@
         <v>3</v>
       </c>
       <c r="B195" s="43" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C195" s="33">
         <v>465</v>
@@ -8769,7 +8767,7 @@
       <c r="D195" s="46"/>
       <c r="E195" s="46"/>
       <c r="F195" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G195" s="45">
         <v>12</v>
@@ -8799,7 +8797,7 @@
         <v>3</v>
       </c>
       <c r="B196" s="43" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C196" s="33">
         <v>465</v>
@@ -8807,7 +8805,7 @@
       <c r="D196" s="46"/>
       <c r="E196" s="46"/>
       <c r="F196" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G196" s="45">
         <v>12</v>
@@ -8837,7 +8835,7 @@
         <v>3</v>
       </c>
       <c r="B197" s="43" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C197" s="33">
         <v>465</v>
@@ -8845,7 +8843,7 @@
       <c r="D197" s="46"/>
       <c r="E197" s="46"/>
       <c r="F197" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G197" s="45">
         <v>12</v>
@@ -8875,7 +8873,7 @@
         <v>3</v>
       </c>
       <c r="B198" s="43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C198" s="33">
         <v>465</v>
@@ -8883,7 +8881,7 @@
       <c r="D198" s="46"/>
       <c r="E198" s="46"/>
       <c r="F198" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G198" s="45">
         <v>12</v>
@@ -8913,7 +8911,7 @@
         <v>3</v>
       </c>
       <c r="B199" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C199" s="33">
         <v>465</v>
@@ -8921,7 +8919,7 @@
       <c r="D199" s="46"/>
       <c r="E199" s="46"/>
       <c r="F199" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G199" s="45">
         <v>12</v>
@@ -8951,7 +8949,7 @@
         <v>3</v>
       </c>
       <c r="B200" s="43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C200" s="33">
         <v>465</v>
@@ -8959,7 +8957,7 @@
       <c r="D200" s="46"/>
       <c r="E200" s="46"/>
       <c r="F200" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G200" s="45">
         <v>12</v>
@@ -8989,7 +8987,7 @@
         <v>3</v>
       </c>
       <c r="B201" s="43" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C201" s="33">
         <v>465</v>
@@ -8997,7 +8995,7 @@
       <c r="D201" s="46"/>
       <c r="E201" s="46"/>
       <c r="F201" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G201" s="45">
         <v>12</v>
@@ -9027,7 +9025,7 @@
         <v>3</v>
       </c>
       <c r="B202" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C202" s="33">
         <v>465</v>
@@ -9035,7 +9033,7 @@
       <c r="D202" s="46"/>
       <c r="E202" s="46"/>
       <c r="F202" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G202" s="45">
         <v>12</v>
@@ -9065,7 +9063,7 @@
         <v>3</v>
       </c>
       <c r="B203" s="43" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C203" s="33">
         <v>465</v>
@@ -9073,7 +9071,7 @@
       <c r="D203" s="46"/>
       <c r="E203" s="46"/>
       <c r="F203" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G203" s="45">
         <v>12</v>
@@ -9103,7 +9101,7 @@
         <v>3</v>
       </c>
       <c r="B204" s="43" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C204" s="33">
         <v>465</v>
@@ -9111,7 +9109,7 @@
       <c r="D204" s="46"/>
       <c r="E204" s="46"/>
       <c r="F204" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G204" s="45">
         <v>12</v>
@@ -9141,7 +9139,7 @@
         <v>3</v>
       </c>
       <c r="B205" s="43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C205" s="33">
         <v>465</v>
@@ -9149,7 +9147,7 @@
       <c r="D205" s="46"/>
       <c r="E205" s="46"/>
       <c r="F205" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G205" s="45">
         <v>12</v>
@@ -9179,7 +9177,7 @@
         <v>3</v>
       </c>
       <c r="B206" s="43" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C206" s="33">
         <v>465</v>
@@ -9187,7 +9185,7 @@
       <c r="D206" s="46"/>
       <c r="E206" s="46"/>
       <c r="F206" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G206" s="45">
         <v>12</v>
@@ -9217,7 +9215,7 @@
         <v>3</v>
       </c>
       <c r="B207" s="43" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C207" s="33">
         <v>465</v>
@@ -9225,7 +9223,7 @@
       <c r="D207" s="46"/>
       <c r="E207" s="46"/>
       <c r="F207" s="46" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G207" s="45">
         <v>12</v>
